--- a/testcase_account_ver4.xlsx
+++ b/testcase_account_ver4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{224FBB0B-F2B5-4819-8AEB-A42E8A4EEB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C416EE6-979F-4B31-A09E-6D4B19B9C639}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96016CE4-2C19-4E13-8E16-6C528505E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="614">
   <si>
     <t>作成者</t>
   </si>
@@ -10799,28 +10799,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ヘッダーの内容にはリンクなしの状態で、画面中央に「エラーが発生したためアカウント登録できません。※ログインを行ってください。」と赤文字で表示され、その下に「ログイン画面へ戻る」ボタンが表示される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヘッダーの内容にはリンクなしの状態で、画面中央に「※ログインを行ってください。」と赤文字で表示され、その下に「ログイン画面へ戻る」ボタンが表示される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヘッダーの内容にはリンクなしの状態で、画面中央に「エラーが発生したためアカウント削除できません。※ログインを行ってください。」と赤文字で表示され、その下に「ログイン画面へ戻る」ボタンが表示される。</t>
-    <rPh sb="40" eb="42">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ヘッダーの内容にはリンクなしの状態で、画面中央に「エラーが発生したためアカウント更新できません。※ログインを行ってください。」と赤文字で表示され、その下に「ログイン画面へ戻る」ボタンが表示される。</t>
-    <rPh sb="40" eb="42">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン状態マトリックスの各ログイン状態での実施内容を実行する。</t>
     <rPh sb="4" eb="6">
       <t>ジョウタイ</t>
@@ -10856,6 +10834,403 @@
     <rPh sb="27" eb="29">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーの内容にはリンクなしの状態で、その下に「ログイン画面へ戻る」ボタンが表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーの内容にはリンクなしの状態で、画面中央に「※この画面は操作できません」と赤文字で表示、その下に「ログイン画面へ戻る」ボタンが表示される。</t>
+    <rPh sb="19" eb="23">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面で管理者権限でログインを行いURLを実施。</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント登録画面」でデータを入力し「確認する」を押す。</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャケンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント登録確認画面」でデータが入力されていることを確認し「登録する」を押す。</t>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面で管理者権限でログインを行いURLを実施。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント一覧画面」で削除したいデータの「削除」ボタンを押す。</t>
+    <rPh sb="18" eb="20">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント削除画面」でデータを確認し「確認する」ボタンを押す。</t>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント削除確認画面」でデータを確認し「登録する」ボタンを押す。</t>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント一覧画面」で更新したいデータの「更新」ボタンを押す。</t>
+    <rPh sb="24" eb="26">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント更新画面」でデータを確認の上、修正する場合は修正し「確認する」ボタンを押す。</t>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央に「アカウント登録画面からアカウント登録をしてください。」と赤文字で表示され、その下に「アカウント登録画面へ進む」ボタンが表示される。</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>アカモジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ススム</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央に「アカウント登録画面からアカウント登録をしてください。エラーが発生したためアカウント登録できません。」と赤文字で表示され、「ログイン画面に戻る」ボタンと「TOPページに戻る」ボタンが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央に「※アカウント一覧画面から削除するデータを選択してください。」と赤文字で表示され、「アカウント一覧画面へ進む」ボタンが表示される。</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央に「※アカウント一覧画面から更新するデータを選択してください。」と赤文字で表示され、「アカウント一覧画面へ進む」ボタンが表示される。</t>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者権限でログインし、「アカウント更新確認画面」でデータを確認し「登録する」ボタンを押す。</t>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッダーの内容の中で「アカウント登録」と「アカウント一覧」がリンク付きで表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面が表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面が表示され、入力したデータが表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面が表示される。また、追加で「ログイン画面に戻る」ボタンが「TOPページに戻る」ボタンの下に表示される。</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面が表示される。</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面が表示され、選択したデータが表示される。</t>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面が表示される。</t>
+  </si>
+  <si>
+    <t>アカウント削除完了画面が表示される。また、追加で「ログイン画面に戻る」ボタンが「TOPページに戻る」ボタンの下に表示される。</t>
+  </si>
+  <si>
+    <t>アカウント更新画面が表示され、選択したデータが表示される。</t>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント更新確認画面が表示される。</t>
+  </si>
+  <si>
+    <t>アカウント更新完了画面が表示される。追加で「ログイン画面に戻る」ボタンが「TOPページに戻る」ボタンの下に表示される。</t>
+  </si>
+  <si>
+    <t>ヘッダーの内容の中で「アカウント登録」と「アカウント一覧」がリンク付きで表示される。</t>
+  </si>
+  <si>
+    <t>アカウント登録画面が表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面が表示される。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11268,7 +11643,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11570,109 +11945,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11687,28 +11963,163 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -12083,12 +12494,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -12111,10 +12522,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -12428,7 +12839,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="105" t="s">
+      <c r="G12" s="111" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -12458,7 +12869,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="106"/>
+      <c r="G13" s="119"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -12486,7 +12897,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="106"/>
+      <c r="G14" s="119"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -12514,7 +12925,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="106"/>
+      <c r="G15" s="119"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -12542,7 +12953,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="106"/>
+      <c r="G16" s="119"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -12570,7 +12981,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="106"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -12598,7 +13009,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="106"/>
+      <c r="G18" s="119"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -12626,7 +13037,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="106"/>
+      <c r="G19" s="119"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -12654,7 +13065,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="106"/>
+      <c r="G20" s="119"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -12682,7 +13093,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="106"/>
+      <c r="G21" s="119"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -12710,7 +13121,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="106"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -12738,7 +13149,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="107"/>
+      <c r="G23" s="112"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -13196,7 +13607,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="108" t="s">
+      <c r="G38" s="116" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -13226,7 +13637,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="109"/>
+      <c r="G39" s="117"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -13254,7 +13665,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="109"/>
+      <c r="G40" s="117"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -13282,7 +13693,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="109"/>
+      <c r="G41" s="117"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -13310,7 +13721,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="110"/>
+      <c r="G42" s="118"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -13462,7 +13873,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="108" t="s">
+      <c r="G47" s="116" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -13492,7 +13903,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="110"/>
+      <c r="G48" s="118"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -13773,7 +14184,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="105" t="s">
+      <c r="F57" s="111" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -13805,7 +14216,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="106"/>
+      <c r="F58" s="119"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -13832,10 +14243,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="111" t="s">
+      <c r="E59" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="106"/>
+      <c r="F59" s="119"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -13860,8 +14271,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="112"/>
-      <c r="F60" s="106"/>
+      <c r="E60" s="128"/>
+      <c r="F60" s="119"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -13886,8 +14297,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="112"/>
-      <c r="F61" s="106"/>
+      <c r="E61" s="128"/>
+      <c r="F61" s="119"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -13912,8 +14323,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="112"/>
-      <c r="F62" s="106"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="119"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -13938,8 +14349,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="112"/>
-      <c r="F63" s="106"/>
+      <c r="E63" s="128"/>
+      <c r="F63" s="119"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -13964,8 +14375,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="112"/>
-      <c r="F64" s="106"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="119"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -13990,8 +14401,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="112"/>
-      <c r="F65" s="106"/>
+      <c r="E65" s="128"/>
+      <c r="F65" s="119"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -14016,8 +14427,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="112"/>
-      <c r="F66" s="106"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="119"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -14042,8 +14453,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="112"/>
-      <c r="F67" s="106"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="119"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -14068,8 +14479,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="112"/>
-      <c r="F68" s="106"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="119"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -14094,8 +14505,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="112"/>
-      <c r="F69" s="106"/>
+      <c r="E69" s="128"/>
+      <c r="F69" s="119"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -14120,8 +14531,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="112"/>
-      <c r="F70" s="106"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="119"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -14146,8 +14557,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="113"/>
-      <c r="F71" s="107"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="112"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -14208,10 +14619,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="114" t="s">
+      <c r="E73" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="108" t="s">
+      <c r="F73" s="116" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -14238,8 +14649,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="115"/>
-      <c r="F74" s="109"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="117"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -14264,8 +14675,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="115"/>
-      <c r="F75" s="109"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="117"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -14290,8 +14701,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="115"/>
-      <c r="F76" s="109"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="117"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -14316,8 +14727,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="115"/>
-      <c r="F77" s="109"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="117"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -14342,8 +14753,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="115"/>
-      <c r="F78" s="109"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="117"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -14368,8 +14779,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="115"/>
-      <c r="F79" s="109"/>
+      <c r="E79" s="114"/>
+      <c r="F79" s="117"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -14394,8 +14805,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="115"/>
-      <c r="F80" s="109"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="117"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -14420,8 +14831,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="115"/>
-      <c r="F81" s="109"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="117"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -14446,8 +14857,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="115"/>
-      <c r="F82" s="109"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="117"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -14472,8 +14883,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="115"/>
-      <c r="F83" s="109"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="117"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -14498,8 +14909,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="116"/>
-      <c r="F84" s="110"/>
+      <c r="E84" s="115"/>
+      <c r="F84" s="118"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -14592,10 +15003,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="114" t="s">
+      <c r="E87" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="108" t="s">
+      <c r="F87" s="116" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -14622,8 +15033,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="115"/>
-      <c r="F88" s="109"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="117"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -14648,8 +15059,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="115"/>
-      <c r="F89" s="109"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="117"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -14674,8 +15085,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="116"/>
-      <c r="F90" s="110"/>
+      <c r="E90" s="115"/>
+      <c r="F90" s="118"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -14704,10 +15115,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="114" t="s">
+      <c r="E91" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="105" t="s">
+      <c r="F91" s="111" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -14736,8 +15147,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="115"/>
-      <c r="F92" s="106"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="119"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -14762,8 +15173,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="116"/>
-      <c r="F93" s="106"/>
+      <c r="E93" s="115"/>
+      <c r="F93" s="119"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -14795,7 +15206,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="106"/>
+      <c r="F94" s="119"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -14823,7 +15234,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="107"/>
+      <c r="F95" s="112"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -14918,10 +15329,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="114" t="s">
+      <c r="E98" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="108" t="s">
+      <c r="F98" s="116" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -14948,8 +15359,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="115"/>
-      <c r="F99" s="109"/>
+      <c r="E99" s="114"/>
+      <c r="F99" s="117"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -14974,8 +15385,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="115"/>
-      <c r="F100" s="109"/>
+      <c r="E100" s="114"/>
+      <c r="F100" s="117"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -15000,8 +15411,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="115"/>
-      <c r="F101" s="109"/>
+      <c r="E101" s="114"/>
+      <c r="F101" s="117"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -15026,8 +15437,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="115"/>
-      <c r="F102" s="109"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="117"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -15052,8 +15463,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="115"/>
-      <c r="F103" s="109"/>
+      <c r="E103" s="114"/>
+      <c r="F103" s="117"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -15078,8 +15489,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="115"/>
-      <c r="F104" s="109"/>
+      <c r="E104" s="114"/>
+      <c r="F104" s="117"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -15104,8 +15515,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="115"/>
-      <c r="F105" s="109"/>
+      <c r="E105" s="114"/>
+      <c r="F105" s="117"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -15130,8 +15541,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="115"/>
-      <c r="F106" s="109"/>
+      <c r="E106" s="114"/>
+      <c r="F106" s="117"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -15156,8 +15567,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="115"/>
-      <c r="F107" s="109"/>
+      <c r="E107" s="114"/>
+      <c r="F107" s="117"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -15182,8 +15593,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="115"/>
-      <c r="F108" s="109"/>
+      <c r="E108" s="114"/>
+      <c r="F108" s="117"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -15208,8 +15619,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="116"/>
-      <c r="F109" s="110"/>
+      <c r="E109" s="115"/>
+      <c r="F109" s="118"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -15306,7 +15717,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="105" t="s">
+      <c r="G112" s="111" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -15336,7 +15747,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="106"/>
+      <c r="G113" s="119"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -15364,7 +15775,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="106"/>
+      <c r="G114" s="119"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -15392,7 +15803,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="106"/>
+      <c r="G115" s="119"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -15420,7 +15831,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="106"/>
+      <c r="G116" s="119"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -15448,7 +15859,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="106"/>
+      <c r="G117" s="119"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -15478,7 +15889,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="106"/>
+      <c r="G118" s="119"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -15506,7 +15917,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="106"/>
+      <c r="G119" s="119"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -15534,7 +15945,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="106"/>
+      <c r="G120" s="119"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -15562,7 +15973,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="106"/>
+      <c r="G121" s="119"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -15590,7 +16001,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="106"/>
+      <c r="G122" s="119"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -15618,7 +16029,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="107"/>
+      <c r="G123" s="112"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -15951,7 +16362,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="108" t="s">
+      <c r="F134" s="116" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -15981,7 +16392,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="109"/>
+      <c r="F135" s="117"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -16009,7 +16420,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="109"/>
+      <c r="F136" s="117"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -16037,7 +16448,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="109"/>
+      <c r="F137" s="117"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -16065,7 +16476,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="109"/>
+      <c r="F138" s="117"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -16093,7 +16504,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="109"/>
+      <c r="F139" s="117"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -16121,7 +16532,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="109"/>
+      <c r="F140" s="117"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -16151,7 +16562,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="109"/>
+      <c r="F141" s="117"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -16179,7 +16590,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="109"/>
+      <c r="F142" s="117"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -16207,7 +16618,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="109"/>
+      <c r="F143" s="117"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -16235,7 +16646,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="109"/>
+      <c r="F144" s="117"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -16263,7 +16674,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="109"/>
+      <c r="F145" s="117"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -16291,7 +16702,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="109"/>
+      <c r="F146" s="117"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -16319,7 +16730,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="109"/>
+      <c r="F147" s="117"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -16347,7 +16758,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="110"/>
+      <c r="F148" s="118"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -16379,7 +16790,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="108" t="s">
+      <c r="F149" s="116" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -16409,7 +16820,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="109"/>
+      <c r="F150" s="117"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -16437,7 +16848,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="110"/>
+      <c r="F151" s="118"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -16466,13 +16877,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="117" t="s">
+      <c r="E152" s="120" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="108" t="s">
+      <c r="F152" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="105" t="s">
+      <c r="G152" s="111" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -16496,9 +16907,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="118"/>
-      <c r="F153" s="109"/>
-      <c r="G153" s="106"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="117"/>
+      <c r="G153" s="119"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -16520,9 +16931,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="118"/>
-      <c r="F154" s="109"/>
-      <c r="G154" s="106"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="117"/>
+      <c r="G154" s="119"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -16544,9 +16955,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="118"/>
-      <c r="F155" s="109"/>
-      <c r="G155" s="106"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="117"/>
+      <c r="G155" s="119"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -16568,9 +16979,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="118"/>
-      <c r="F156" s="109"/>
-      <c r="G156" s="106"/>
+      <c r="E156" s="121"/>
+      <c r="F156" s="117"/>
+      <c r="G156" s="119"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -16592,9 +17003,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="118"/>
-      <c r="F157" s="109"/>
-      <c r="G157" s="106"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="117"/>
+      <c r="G157" s="119"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -16618,9 +17029,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="118"/>
-      <c r="F158" s="109"/>
-      <c r="G158" s="106"/>
+      <c r="E158" s="121"/>
+      <c r="F158" s="117"/>
+      <c r="G158" s="119"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -16642,9 +17053,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="118"/>
-      <c r="F159" s="109"/>
-      <c r="G159" s="106"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="117"/>
+      <c r="G159" s="119"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -16666,9 +17077,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="118"/>
-      <c r="F160" s="109"/>
-      <c r="G160" s="106"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="117"/>
+      <c r="G160" s="119"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -16690,9 +17101,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="118"/>
-      <c r="F161" s="109"/>
-      <c r="G161" s="106"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="117"/>
+      <c r="G161" s="119"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -16714,9 +17125,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="118"/>
-      <c r="F162" s="109"/>
-      <c r="G162" s="106"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="117"/>
+      <c r="G162" s="119"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -16738,9 +17149,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="118"/>
-      <c r="F163" s="109"/>
-      <c r="G163" s="107"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="117"/>
+      <c r="G163" s="112"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -16762,8 +17173,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="118"/>
-      <c r="F164" s="109"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="117"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -16788,8 +17199,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="119"/>
-      <c r="F165" s="110"/>
+      <c r="E165" s="122"/>
+      <c r="F165" s="118"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -16880,7 +17291,7 @@
       <c r="F168" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="G168" s="105" t="s">
+      <c r="G168" s="111" t="s">
         <v>539</v>
       </c>
       <c r="H168" s="12"/>
@@ -16902,7 +17313,7 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="107"/>
+      <c r="G169" s="112"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
       <c r="J169" s="30"/>
@@ -16961,7 +17372,7 @@
       <c r="C172" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D172" s="141" t="s">
+      <c r="D172" s="108" t="s">
         <v>546</v>
       </c>
       <c r="E172" s="24" t="s">
@@ -16984,20 +17395,20 @@
       <c r="B173" s="48" t="s">
         <v>578</v>
       </c>
-      <c r="C173" s="143" t="s">
+      <c r="C173" s="110" t="s">
         <v>538</v>
       </c>
       <c r="D173" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="E173" s="142" t="s">
+      <c r="E173" s="109" t="s">
         <v>55</v>
       </c>
       <c r="F173" s="37" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G173" s="31" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
@@ -17008,9 +17419,9 @@
     <row r="174" spans="1:12" ht="15">
       <c r="A174" s="12"/>
       <c r="B174" s="48"/>
-      <c r="C174" s="143"/>
+      <c r="C174" s="110"/>
       <c r="D174" s="31"/>
-      <c r="E174" s="142"/>
+      <c r="E174" s="109"/>
       <c r="F174" s="37"/>
       <c r="G174" s="31"/>
       <c r="H174" s="12"/>
@@ -17022,9 +17433,9 @@
     <row r="175" spans="1:12" ht="15">
       <c r="A175" s="12"/>
       <c r="B175" s="48"/>
-      <c r="C175" s="143"/>
+      <c r="C175" s="110"/>
       <c r="D175" s="31"/>
-      <c r="E175" s="142"/>
+      <c r="E175" s="109"/>
       <c r="F175" s="37"/>
       <c r="G175" s="31"/>
       <c r="H175" s="12"/>
@@ -17036,9 +17447,9 @@
     <row r="176" spans="1:12" ht="15">
       <c r="A176" s="12"/>
       <c r="B176" s="48"/>
-      <c r="C176" s="143"/>
+      <c r="C176" s="110"/>
       <c r="D176" s="31"/>
-      <c r="E176" s="142"/>
+      <c r="E176" s="109"/>
       <c r="F176" s="37"/>
       <c r="G176" s="31"/>
       <c r="H176" s="12"/>
@@ -17050,9 +17461,9 @@
     <row r="177" spans="1:12" ht="15">
       <c r="A177" s="12"/>
       <c r="B177" s="48"/>
-      <c r="C177" s="143"/>
+      <c r="C177" s="110"/>
       <c r="D177" s="31"/>
-      <c r="E177" s="142"/>
+      <c r="E177" s="109"/>
       <c r="F177" s="37"/>
       <c r="G177" s="31"/>
       <c r="H177" s="12"/>
@@ -17064,9 +17475,9 @@
     <row r="178" spans="1:12" ht="15">
       <c r="A178" s="12"/>
       <c r="B178" s="48"/>
-      <c r="C178" s="143"/>
+      <c r="C178" s="110"/>
       <c r="D178" s="31"/>
-      <c r="E178" s="142"/>
+      <c r="E178" s="109"/>
       <c r="F178" s="37"/>
       <c r="G178" s="31"/>
       <c r="H178" s="12"/>
@@ -17078,9 +17489,9 @@
     <row r="179" spans="1:12" ht="15">
       <c r="A179" s="12"/>
       <c r="B179" s="48"/>
-      <c r="C179" s="143"/>
+      <c r="C179" s="110"/>
       <c r="D179" s="31"/>
-      <c r="E179" s="142"/>
+      <c r="E179" s="109"/>
       <c r="F179" s="37"/>
       <c r="G179" s="31"/>
       <c r="H179" s="12"/>
@@ -17092,9 +17503,9 @@
     <row r="180" spans="1:12" ht="15">
       <c r="A180" s="12"/>
       <c r="B180" s="48"/>
-      <c r="C180" s="143"/>
+      <c r="C180" s="110"/>
       <c r="D180" s="31"/>
-      <c r="E180" s="142"/>
+      <c r="E180" s="109"/>
       <c r="F180" s="37"/>
       <c r="G180" s="31"/>
       <c r="H180" s="12"/>
@@ -17106,9 +17517,9 @@
     <row r="181" spans="1:12" ht="15">
       <c r="A181" s="12"/>
       <c r="B181" s="48"/>
-      <c r="C181" s="143"/>
+      <c r="C181" s="110"/>
       <c r="D181" s="31"/>
-      <c r="E181" s="142"/>
+      <c r="E181" s="109"/>
       <c r="F181" s="37"/>
       <c r="G181" s="31"/>
       <c r="H181" s="12"/>
@@ -17120,9 +17531,9 @@
     <row r="182" spans="1:12" ht="15">
       <c r="A182" s="12"/>
       <c r="B182" s="48"/>
-      <c r="C182" s="143"/>
+      <c r="C182" s="110"/>
       <c r="D182" s="31"/>
-      <c r="E182" s="142"/>
+      <c r="E182" s="109"/>
       <c r="F182" s="37"/>
       <c r="G182" s="31"/>
       <c r="H182" s="12"/>
@@ -17134,9 +17545,9 @@
     <row r="183" spans="1:12" ht="15">
       <c r="A183" s="12"/>
       <c r="B183" s="48"/>
-      <c r="C183" s="143"/>
+      <c r="C183" s="110"/>
       <c r="D183" s="31"/>
-      <c r="E183" s="142"/>
+      <c r="E183" s="109"/>
       <c r="F183" s="37"/>
       <c r="G183" s="31"/>
       <c r="H183" s="12"/>
@@ -17148,9 +17559,9 @@
     <row r="184" spans="1:12" ht="15.6" customHeight="1">
       <c r="A184" s="12"/>
       <c r="B184" s="48"/>
-      <c r="C184" s="143"/>
+      <c r="C184" s="110"/>
       <c r="D184" s="31"/>
-      <c r="E184" s="142"/>
+      <c r="E184" s="109"/>
       <c r="F184" s="37"/>
       <c r="G184" s="31"/>
       <c r="H184" s="12"/>
@@ -17162,9 +17573,9 @@
     <row r="185" spans="1:12" ht="15">
       <c r="A185" s="12"/>
       <c r="B185" s="48"/>
-      <c r="C185" s="143"/>
+      <c r="C185" s="110"/>
       <c r="D185" s="31"/>
-      <c r="E185" s="142"/>
+      <c r="E185" s="109"/>
       <c r="F185" s="37"/>
       <c r="G185" s="31"/>
       <c r="H185" s="12"/>
@@ -17176,9 +17587,9 @@
     <row r="186" spans="1:12" ht="15">
       <c r="A186" s="12"/>
       <c r="B186" s="48"/>
-      <c r="C186" s="143"/>
+      <c r="C186" s="110"/>
       <c r="D186" s="31"/>
-      <c r="E186" s="142"/>
+      <c r="E186" s="109"/>
       <c r="F186" s="37"/>
       <c r="G186" s="31"/>
       <c r="H186" s="12"/>
@@ -17190,9 +17601,9 @@
     <row r="187" spans="1:12" ht="15">
       <c r="A187" s="12"/>
       <c r="B187" s="48"/>
-      <c r="C187" s="143"/>
+      <c r="C187" s="110"/>
       <c r="D187" s="31"/>
-      <c r="E187" s="142"/>
+      <c r="E187" s="109"/>
       <c r="F187" s="37"/>
       <c r="G187" s="31"/>
       <c r="H187" s="12"/>
@@ -17204,9 +17615,9 @@
     <row r="188" spans="1:12" ht="15">
       <c r="A188" s="12"/>
       <c r="B188" s="48"/>
-      <c r="C188" s="143"/>
+      <c r="C188" s="110"/>
       <c r="D188" s="31"/>
-      <c r="E188" s="142"/>
+      <c r="E188" s="109"/>
       <c r="F188" s="37"/>
       <c r="G188" s="31"/>
       <c r="H188" s="12"/>
@@ -17218,9 +17629,9 @@
     <row r="189" spans="1:12" ht="15">
       <c r="A189" s="12"/>
       <c r="B189" s="48"/>
-      <c r="C189" s="143"/>
+      <c r="C189" s="110"/>
       <c r="D189" s="31"/>
-      <c r="E189" s="142"/>
+      <c r="E189" s="109"/>
       <c r="F189" s="37"/>
       <c r="G189" s="31"/>
       <c r="H189" s="12"/>
@@ -17232,9 +17643,9 @@
     <row r="190" spans="1:12" ht="15">
       <c r="A190" s="12"/>
       <c r="B190" s="48"/>
-      <c r="C190" s="143"/>
+      <c r="C190" s="110"/>
       <c r="D190" s="31"/>
-      <c r="E190" s="142"/>
+      <c r="E190" s="109"/>
       <c r="F190" s="37"/>
       <c r="G190" s="31"/>
       <c r="H190" s="12"/>
@@ -17246,9 +17657,9 @@
     <row r="191" spans="1:12" ht="15">
       <c r="A191" s="12"/>
       <c r="B191" s="48"/>
-      <c r="C191" s="143"/>
+      <c r="C191" s="110"/>
       <c r="D191" s="31"/>
-      <c r="E191" s="142"/>
+      <c r="E191" s="109"/>
       <c r="F191" s="37"/>
       <c r="G191" s="31"/>
       <c r="H191" s="12"/>
@@ -17260,9 +17671,9 @@
     <row r="192" spans="1:12" ht="15">
       <c r="A192" s="12"/>
       <c r="B192" s="48"/>
-      <c r="C192" s="143"/>
+      <c r="C192" s="110"/>
       <c r="D192" s="31"/>
-      <c r="E192" s="142"/>
+      <c r="E192" s="109"/>
       <c r="F192" s="37"/>
       <c r="G192" s="31"/>
       <c r="H192" s="12"/>
@@ -17274,9 +17685,9 @@
     <row r="193" spans="1:12" ht="15">
       <c r="A193" s="12"/>
       <c r="B193" s="48"/>
-      <c r="C193" s="143"/>
+      <c r="C193" s="110"/>
       <c r="D193" s="31"/>
-      <c r="E193" s="142"/>
+      <c r="E193" s="109"/>
       <c r="F193" s="37"/>
       <c r="G193" s="31"/>
       <c r="H193" s="12"/>
@@ -17288,9 +17699,9 @@
     <row r="194" spans="1:12" ht="15">
       <c r="A194" s="12"/>
       <c r="B194" s="48"/>
-      <c r="C194" s="143"/>
+      <c r="C194" s="110"/>
       <c r="D194" s="31"/>
-      <c r="E194" s="142"/>
+      <c r="E194" s="109"/>
       <c r="F194" s="37"/>
       <c r="G194" s="31"/>
       <c r="H194" s="12"/>
@@ -17302,9 +17713,9 @@
     <row r="195" spans="1:12" ht="15">
       <c r="A195" s="12"/>
       <c r="B195" s="48"/>
-      <c r="C195" s="143"/>
+      <c r="C195" s="110"/>
       <c r="D195" s="31"/>
-      <c r="E195" s="142"/>
+      <c r="E195" s="109"/>
       <c r="F195" s="37"/>
       <c r="G195" s="31"/>
       <c r="H195" s="12"/>
@@ -17316,9 +17727,9 @@
     <row r="196" spans="1:12" ht="15">
       <c r="A196" s="12"/>
       <c r="B196" s="48"/>
-      <c r="C196" s="143"/>
+      <c r="C196" s="110"/>
       <c r="D196" s="31"/>
-      <c r="E196" s="142"/>
+      <c r="E196" s="109"/>
       <c r="F196" s="37"/>
       <c r="G196" s="31"/>
       <c r="H196" s="12"/>
@@ -17330,9 +17741,9 @@
     <row r="197" spans="1:12" ht="15">
       <c r="A197" s="12"/>
       <c r="B197" s="48"/>
-      <c r="C197" s="143"/>
+      <c r="C197" s="110"/>
       <c r="D197" s="31"/>
-      <c r="E197" s="142"/>
+      <c r="E197" s="109"/>
       <c r="F197" s="37"/>
       <c r="G197" s="31"/>
       <c r="H197" s="12"/>
@@ -17344,9 +17755,9 @@
     <row r="198" spans="1:12" ht="15">
       <c r="A198" s="12"/>
       <c r="B198" s="48"/>
-      <c r="C198" s="143"/>
+      <c r="C198" s="110"/>
       <c r="D198" s="31"/>
-      <c r="E198" s="142"/>
+      <c r="E198" s="109"/>
       <c r="F198" s="37"/>
       <c r="G198" s="31"/>
       <c r="H198" s="12"/>
@@ -17358,9 +17769,9 @@
     <row r="199" spans="1:12" ht="15">
       <c r="A199" s="12"/>
       <c r="B199" s="48"/>
-      <c r="C199" s="143"/>
+      <c r="C199" s="110"/>
       <c r="D199" s="31"/>
-      <c r="E199" s="142"/>
+      <c r="E199" s="109"/>
       <c r="F199" s="37"/>
       <c r="G199" s="31"/>
       <c r="H199" s="12"/>
@@ -17372,9 +17783,9 @@
     <row r="200" spans="1:12" ht="15">
       <c r="A200" s="12"/>
       <c r="B200" s="48"/>
-      <c r="C200" s="143"/>
+      <c r="C200" s="110"/>
       <c r="D200" s="31"/>
-      <c r="E200" s="142"/>
+      <c r="E200" s="109"/>
       <c r="F200" s="37"/>
       <c r="G200" s="31"/>
       <c r="H200" s="12"/>
@@ -17386,9 +17797,9 @@
     <row r="201" spans="1:12" ht="15">
       <c r="A201" s="12"/>
       <c r="B201" s="48"/>
-      <c r="C201" s="143"/>
+      <c r="C201" s="110"/>
       <c r="D201" s="31"/>
-      <c r="E201" s="142"/>
+      <c r="E201" s="109"/>
       <c r="F201" s="37"/>
       <c r="G201" s="31"/>
       <c r="H201" s="12"/>
@@ -17400,9 +17811,9 @@
     <row r="202" spans="1:12" ht="15">
       <c r="A202" s="12"/>
       <c r="B202" s="48"/>
-      <c r="C202" s="143"/>
+      <c r="C202" s="110"/>
       <c r="D202" s="31"/>
-      <c r="E202" s="142"/>
+      <c r="E202" s="109"/>
       <c r="F202" s="37"/>
       <c r="G202" s="31"/>
       <c r="H202" s="12"/>
@@ -17414,9 +17825,9 @@
     <row r="203" spans="1:12" ht="15">
       <c r="A203" s="12"/>
       <c r="B203" s="48"/>
-      <c r="C203" s="143"/>
+      <c r="C203" s="110"/>
       <c r="D203" s="31"/>
-      <c r="E203" s="142"/>
+      <c r="E203" s="109"/>
       <c r="F203" s="37"/>
       <c r="G203" s="31"/>
       <c r="H203" s="12"/>
@@ -17428,9 +17839,9 @@
     <row r="204" spans="1:12" ht="15">
       <c r="A204" s="12"/>
       <c r="B204" s="48"/>
-      <c r="C204" s="143"/>
+      <c r="C204" s="110"/>
       <c r="D204" s="31"/>
-      <c r="E204" s="142"/>
+      <c r="E204" s="109"/>
       <c r="F204" s="37"/>
       <c r="G204" s="31"/>
       <c r="H204" s="12"/>
@@ -17442,9 +17853,9 @@
     <row r="205" spans="1:12" ht="15">
       <c r="A205" s="12"/>
       <c r="B205" s="48"/>
-      <c r="C205" s="143"/>
+      <c r="C205" s="110"/>
       <c r="D205" s="31"/>
-      <c r="E205" s="142"/>
+      <c r="E205" s="109"/>
       <c r="F205" s="37"/>
       <c r="G205" s="31"/>
       <c r="H205" s="12"/>
@@ -18155,6 +18566,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
     <mergeCell ref="G168:G169"/>
     <mergeCell ref="E73:E84"/>
     <mergeCell ref="F73:F84"/>
@@ -18170,12 +18587,6 @@
     <mergeCell ref="G112:G123"/>
     <mergeCell ref="F134:F148"/>
     <mergeCell ref="F149:F151"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -18209,11 +18620,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -18236,9 +18647,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="124"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="133"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -18406,13 +18817,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="111" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="105" t="s">
+      <c r="F8" s="111" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -18432,11 +18843,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="106"/>
+      <c r="D9" s="119"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -18454,11 +18865,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="106"/>
+      <c r="D10" s="119"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="119"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -18476,11 +18887,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="106"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="106"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -18498,11 +18909,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="106"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="106"/>
+      <c r="F12" s="119"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -18520,11 +18931,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="106"/>
+      <c r="D13" s="119"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="106"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -18542,11 +18953,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="106"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -18564,11 +18975,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="106"/>
+      <c r="D15" s="119"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="106"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -18586,11 +18997,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="106"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -18608,11 +19019,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="106"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="106"/>
+      <c r="F17" s="119"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -18630,11 +19041,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="106"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -18652,11 +19063,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="107"/>
+      <c r="D19" s="112"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="107"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -18677,13 +19088,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="125" t="s">
+      <c r="E20" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="111" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -18706,9 +19117,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="106"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -18729,9 +19140,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="106"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="106"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -18752,9 +19163,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="106"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="106"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -18775,9 +19186,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="106"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="107"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -18798,8 +19209,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="106"/>
-      <c r="E25" s="126"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="138"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -18823,9 +19234,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="105" t="s">
+      <c r="D26" s="119"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="111" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -18848,9 +19259,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="106"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="106"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="119"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -18871,9 +19282,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="106"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="106"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="119"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -18894,9 +19305,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="106"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -18917,9 +19328,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="106"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="106"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -18940,9 +19351,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="107"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="112"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -18965,7 +19376,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="111" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -18994,7 +19405,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="106"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -19021,7 +19432,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="106"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -19048,7 +19459,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="106"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -19075,7 +19486,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="106"/>
+      <c r="D36" s="119"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -19102,7 +19513,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="106"/>
+      <c r="D37" s="119"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -19129,7 +19540,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="106"/>
+      <c r="D38" s="119"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -19156,7 +19567,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="106"/>
+      <c r="D39" s="119"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -19183,7 +19594,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="106"/>
+      <c r="D40" s="119"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -19210,7 +19621,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="107"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -19239,13 +19650,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="105" t="s">
+      <c r="D42" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="108" t="s">
+      <c r="E42" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="108" t="s">
+      <c r="F42" s="116" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -19268,9 +19679,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="109"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -19291,9 +19702,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="118"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -19314,9 +19725,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="118"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -19337,9 +19748,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -19360,9 +19771,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="118"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -19383,9 +19794,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="118"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -19406,9 +19817,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="118"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -19429,9 +19840,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="118"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -19452,9 +19863,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="118"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -19475,9 +19886,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -19498,9 +19909,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="119"/>
-      <c r="E53" s="110"/>
-      <c r="F53" s="110"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -19523,13 +19934,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="105" t="s">
+      <c r="D54" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="108" t="s">
+      <c r="E54" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="120" t="s">
+      <c r="F54" s="134" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -19552,9 +19963,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="118"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="135"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -19575,9 +19986,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="118"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="135"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -19598,9 +20009,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="118"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="135"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -19621,9 +20032,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="118"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="121"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="135"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -19644,9 +20055,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="118"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="122"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="136"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -19667,8 +20078,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="118"/>
-      <c r="E60" s="109"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="117"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -19692,8 +20103,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="118"/>
-      <c r="E61" s="109"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="117"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -19717,8 +20128,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="118"/>
-      <c r="E62" s="109"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="117"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -19742,9 +20153,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="118"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="120" t="s">
+      <c r="D63" s="121"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="134" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -19767,9 +20178,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="118"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="122"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="136"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -19790,8 +20201,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="110"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="118"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -19817,13 +20228,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="105" t="s">
+      <c r="D66" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="105" t="s">
+      <c r="E66" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="108" t="s">
+      <c r="F66" s="116" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -19846,9 +20257,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="118"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="109"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="117"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -19869,9 +20280,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="118"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="109"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="117"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -19892,9 +20303,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="118"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="109"/>
+      <c r="D69" s="121"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="117"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -19915,9 +20326,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="118"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="109"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="117"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -19938,9 +20349,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="118"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="109"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="117"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -19961,9 +20372,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="118"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="109"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="117"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -19984,9 +20395,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="118"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="109"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="117"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -20007,9 +20418,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="118"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="109"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="117"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -20030,9 +20441,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="118"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="109"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="117"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -20053,9 +20464,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="118"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="109"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="117"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -20076,9 +20487,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="119"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="110"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="118"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -20134,10 +20545,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="105" t="s">
+      <c r="D79" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="105" t="s">
+      <c r="E79" s="111" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -20163,8 +20574,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="119"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -20188,8 +20599,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
+      <c r="D81" s="119"/>
+      <c r="E81" s="119"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -20213,8 +20624,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -20238,8 +20649,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="119"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -20263,8 +20674,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
+      <c r="D84" s="119"/>
+      <c r="E84" s="119"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -20288,8 +20699,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="106"/>
-      <c r="E85" s="106"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -20313,8 +20724,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="106"/>
-      <c r="E86" s="106"/>
+      <c r="D86" s="119"/>
+      <c r="E86" s="119"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -20338,8 +20749,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
+      <c r="D87" s="119"/>
+      <c r="E87" s="119"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -20363,8 +20774,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="106"/>
-      <c r="E88" s="106"/>
+      <c r="D88" s="119"/>
+      <c r="E88" s="119"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -20388,8 +20799,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="106"/>
-      <c r="E89" s="106"/>
+      <c r="D89" s="119"/>
+      <c r="E89" s="119"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -20413,8 +20824,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="106"/>
-      <c r="E90" s="106"/>
+      <c r="D90" s="119"/>
+      <c r="E90" s="119"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -20438,8 +20849,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -20463,8 +20874,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="106"/>
-      <c r="E92" s="106"/>
+      <c r="D92" s="119"/>
+      <c r="E92" s="119"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -20488,8 +20899,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="106"/>
-      <c r="E93" s="106"/>
+      <c r="D93" s="119"/>
+      <c r="E93" s="119"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -20515,8 +20926,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="107"/>
-      <c r="E94" s="107"/>
+      <c r="D94" s="112"/>
+      <c r="E94" s="112"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -20635,10 +21046,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="108" t="s">
+      <c r="D98" s="116" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="108" t="s">
+      <c r="E98" s="116" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -20664,8 +21075,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="128"/>
-      <c r="E99" s="109"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="117"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -20689,8 +21100,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="128"/>
-      <c r="E100" s="109"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="117"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -20714,8 +21125,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="128"/>
-      <c r="E101" s="109"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="117"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -20739,8 +21150,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="128"/>
-      <c r="E102" s="109"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="117"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -20764,8 +21175,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="128"/>
-      <c r="E103" s="109"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="117"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -20789,8 +21200,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="128"/>
-      <c r="E104" s="109"/>
+      <c r="D104" s="130"/>
+      <c r="E104" s="117"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -20814,8 +21225,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="128"/>
-      <c r="E105" s="109"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="117"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -20839,8 +21250,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="128"/>
-      <c r="E106" s="109"/>
+      <c r="D106" s="130"/>
+      <c r="E106" s="117"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -20864,8 +21275,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="128"/>
-      <c r="E107" s="109"/>
+      <c r="D107" s="130"/>
+      <c r="E107" s="117"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -20889,8 +21300,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="129"/>
-      <c r="E108" s="110"/>
+      <c r="D108" s="131"/>
+      <c r="E108" s="118"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -21067,10 +21478,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="108" t="s">
+      <c r="D114" s="116" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="108" t="s">
+      <c r="E114" s="116" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -21096,8 +21507,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="109"/>
-      <c r="E115" s="109"/>
+      <c r="D115" s="117"/>
+      <c r="E115" s="117"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -21121,8 +21532,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="109"/>
-      <c r="E116" s="109"/>
+      <c r="D116" s="117"/>
+      <c r="E116" s="117"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -21146,8 +21557,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="109"/>
-      <c r="E117" s="109"/>
+      <c r="D117" s="117"/>
+      <c r="E117" s="117"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -21171,8 +21582,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="109"/>
-      <c r="E118" s="109"/>
+      <c r="D118" s="117"/>
+      <c r="E118" s="117"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -21196,8 +21607,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="109"/>
-      <c r="E119" s="109"/>
+      <c r="D119" s="117"/>
+      <c r="E119" s="117"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -21221,8 +21632,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="109"/>
-      <c r="E120" s="109"/>
+      <c r="D120" s="117"/>
+      <c r="E120" s="117"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -21246,8 +21657,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="109"/>
-      <c r="E121" s="109"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -21271,8 +21682,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="109"/>
-      <c r="E122" s="109"/>
+      <c r="D122" s="117"/>
+      <c r="E122" s="117"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -21296,8 +21707,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="109"/>
-      <c r="E123" s="109"/>
+      <c r="D123" s="117"/>
+      <c r="E123" s="117"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -21321,8 +21732,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="109"/>
-      <c r="E124" s="109"/>
+      <c r="D124" s="117"/>
+      <c r="E124" s="117"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -21346,8 +21757,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="110"/>
-      <c r="E125" s="110"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="118"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -21501,13 +21912,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="108" t="s">
+      <c r="D130" s="116" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="105" t="s">
+      <c r="E130" s="111" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="108" t="s">
+      <c r="F130" s="116" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -21530,9 +21941,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="109"/>
-      <c r="E131" s="106"/>
-      <c r="F131" s="109"/>
+      <c r="D131" s="117"/>
+      <c r="E131" s="119"/>
+      <c r="F131" s="117"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -21553,9 +21964,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="109"/>
-      <c r="E132" s="106"/>
-      <c r="F132" s="109"/>
+      <c r="D132" s="117"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="117"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -21576,9 +21987,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="109"/>
-      <c r="E133" s="106"/>
-      <c r="F133" s="109"/>
+      <c r="D133" s="117"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="117"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -21599,9 +22010,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="109"/>
-      <c r="E134" s="106"/>
-      <c r="F134" s="109"/>
+      <c r="D134" s="117"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="117"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -21622,9 +22033,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="109"/>
-      <c r="E135" s="106"/>
-      <c r="F135" s="109"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="117"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -21645,9 +22056,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="109"/>
-      <c r="E136" s="106"/>
-      <c r="F136" s="109"/>
+      <c r="D136" s="117"/>
+      <c r="E136" s="119"/>
+      <c r="F136" s="117"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -21668,9 +22079,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="109"/>
-      <c r="E137" s="106"/>
-      <c r="F137" s="109"/>
+      <c r="D137" s="117"/>
+      <c r="E137" s="119"/>
+      <c r="F137" s="117"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -21691,9 +22102,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="109"/>
-      <c r="E138" s="106"/>
-      <c r="F138" s="109"/>
+      <c r="D138" s="117"/>
+      <c r="E138" s="119"/>
+      <c r="F138" s="117"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -21714,9 +22125,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="109"/>
-      <c r="E139" s="106"/>
-      <c r="F139" s="109"/>
+      <c r="D139" s="117"/>
+      <c r="E139" s="119"/>
+      <c r="F139" s="117"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -21737,9 +22148,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="109"/>
-      <c r="E140" s="106"/>
-      <c r="F140" s="109"/>
+      <c r="D140" s="117"/>
+      <c r="E140" s="119"/>
+      <c r="F140" s="117"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -21760,9 +22171,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="110"/>
-      <c r="E141" s="107"/>
-      <c r="F141" s="110"/>
+      <c r="D141" s="118"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="118"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -21847,10 +22258,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="108" t="s">
+      <c r="D144" s="116" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="108" t="s">
+      <c r="E144" s="116" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -21876,8 +22287,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="110"/>
-      <c r="E145" s="110"/>
+      <c r="D145" s="118"/>
+      <c r="E145" s="118"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -22230,10 +22641,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="108" t="s">
+      <c r="D157" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="108" t="s">
+      <c r="E157" s="116" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -22259,8 +22670,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="109"/>
-      <c r="E158" s="109"/>
+      <c r="D158" s="117"/>
+      <c r="E158" s="117"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -22284,8 +22695,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="109"/>
-      <c r="E159" s="109"/>
+      <c r="D159" s="117"/>
+      <c r="E159" s="117"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -22309,8 +22720,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="109"/>
-      <c r="E160" s="109"/>
+      <c r="D160" s="117"/>
+      <c r="E160" s="117"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -22334,8 +22745,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="109"/>
-      <c r="E161" s="109"/>
+      <c r="D161" s="117"/>
+      <c r="E161" s="117"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -22359,8 +22770,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="109"/>
-      <c r="E162" s="109"/>
+      <c r="D162" s="117"/>
+      <c r="E162" s="117"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -22384,8 +22795,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="109"/>
-      <c r="E163" s="109"/>
+      <c r="D163" s="117"/>
+      <c r="E163" s="117"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -22409,8 +22820,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="109"/>
-      <c r="E164" s="109"/>
+      <c r="D164" s="117"/>
+      <c r="E164" s="117"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -22434,8 +22845,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="109"/>
-      <c r="E165" s="109"/>
+      <c r="D165" s="117"/>
+      <c r="E165" s="117"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -22459,8 +22870,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="109"/>
-      <c r="E166" s="109"/>
+      <c r="D166" s="117"/>
+      <c r="E166" s="117"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -22484,8 +22895,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="109"/>
-      <c r="E167" s="109"/>
+      <c r="D167" s="117"/>
+      <c r="E167" s="117"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -22509,8 +22920,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="110"/>
-      <c r="E168" s="110"/>
+      <c r="D168" s="118"/>
+      <c r="E168" s="118"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -22569,13 +22980,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="108" t="s">
+      <c r="D170" s="116" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="108" t="s">
+      <c r="F170" s="116" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -22598,11 +23009,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="109"/>
+      <c r="D171" s="117"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="109"/>
+      <c r="F171" s="117"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -22623,11 +23034,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="109"/>
+      <c r="D172" s="117"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="109"/>
+      <c r="F172" s="117"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -22648,11 +23059,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="109"/>
+      <c r="D173" s="117"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="109"/>
+      <c r="F173" s="117"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -22673,11 +23084,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="109"/>
+      <c r="D174" s="117"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="109"/>
+      <c r="F174" s="117"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -22698,11 +23109,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="109"/>
+      <c r="D175" s="117"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="109"/>
+      <c r="F175" s="117"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -22725,11 +23136,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="109"/>
+      <c r="D176" s="117"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="109"/>
+      <c r="F176" s="117"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -22750,11 +23161,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="109"/>
+      <c r="D177" s="117"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="109"/>
+      <c r="F177" s="117"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -22775,11 +23186,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="109"/>
+      <c r="D178" s="117"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="109"/>
+      <c r="F178" s="117"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -22800,11 +23211,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="109"/>
+      <c r="D179" s="117"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="109"/>
+      <c r="F179" s="117"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -22825,11 +23236,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="109"/>
+      <c r="D180" s="117"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="109"/>
+      <c r="F180" s="117"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -22850,11 +23261,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="110"/>
+      <c r="D181" s="118"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="110"/>
+      <c r="F181" s="118"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -22877,7 +23288,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="108" t="s">
+      <c r="D182" s="116" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -22906,7 +23317,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="109"/>
+      <c r="D183" s="117"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -22933,7 +23344,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="109"/>
+      <c r="D184" s="117"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -22960,7 +23371,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="109"/>
+      <c r="D185" s="117"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -22987,7 +23398,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="109"/>
+      <c r="D186" s="117"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -23014,7 +23425,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="109"/>
+      <c r="D187" s="117"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -23043,7 +23454,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="109"/>
+      <c r="D188" s="117"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -23070,7 +23481,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="109"/>
+      <c r="D189" s="117"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -23097,7 +23508,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="109"/>
+      <c r="D190" s="117"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -23124,7 +23535,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="110"/>
+      <c r="D191" s="118"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -23153,10 +23564,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="108" t="s">
+      <c r="D192" s="116" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="108" t="s">
+      <c r="E192" s="116" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -23182,8 +23593,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="109"/>
-      <c r="E193" s="109"/>
+      <c r="D193" s="117"/>
+      <c r="E193" s="117"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -23207,8 +23618,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="109"/>
-      <c r="E194" s="109"/>
+      <c r="D194" s="117"/>
+      <c r="E194" s="117"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -23232,8 +23643,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="109"/>
-      <c r="E195" s="109"/>
+      <c r="D195" s="117"/>
+      <c r="E195" s="117"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -23257,8 +23668,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="109"/>
-      <c r="E196" s="109"/>
+      <c r="D196" s="117"/>
+      <c r="E196" s="117"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -23282,8 +23693,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="109"/>
-      <c r="E197" s="109"/>
+      <c r="D197" s="117"/>
+      <c r="E197" s="117"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -23309,8 +23720,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="109"/>
-      <c r="E198" s="109"/>
+      <c r="D198" s="117"/>
+      <c r="E198" s="117"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -23334,8 +23745,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="109"/>
-      <c r="E199" s="109"/>
+      <c r="D199" s="117"/>
+      <c r="E199" s="117"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -23359,8 +23770,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="109"/>
-      <c r="E200" s="109"/>
+      <c r="D200" s="117"/>
+      <c r="E200" s="117"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -23384,8 +23795,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="109"/>
-      <c r="E201" s="109"/>
+      <c r="D201" s="117"/>
+      <c r="E201" s="117"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -23409,8 +23820,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="109"/>
-      <c r="E202" s="109"/>
+      <c r="D202" s="117"/>
+      <c r="E202" s="117"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -23434,8 +23845,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="110"/>
-      <c r="E203" s="110"/>
+      <c r="D203" s="118"/>
+      <c r="E203" s="118"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -23494,13 +23905,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="108" t="s">
+      <c r="D205" s="116" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="108" t="s">
+      <c r="E205" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="120" t="s">
+      <c r="F205" s="134" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -23523,9 +23934,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="109"/>
-      <c r="E206" s="109"/>
-      <c r="F206" s="121"/>
+      <c r="D206" s="117"/>
+      <c r="E206" s="117"/>
+      <c r="F206" s="135"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -23546,9 +23957,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="109"/>
-      <c r="E207" s="109"/>
-      <c r="F207" s="121"/>
+      <c r="D207" s="117"/>
+      <c r="E207" s="117"/>
+      <c r="F207" s="135"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -23569,9 +23980,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="109"/>
-      <c r="E208" s="109"/>
-      <c r="F208" s="121"/>
+      <c r="D208" s="117"/>
+      <c r="E208" s="117"/>
+      <c r="F208" s="135"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -23592,9 +24003,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="109"/>
-      <c r="E209" s="109"/>
-      <c r="F209" s="121"/>
+      <c r="D209" s="117"/>
+      <c r="E209" s="117"/>
+      <c r="F209" s="135"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -23615,9 +24026,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="109"/>
-      <c r="E210" s="109"/>
-      <c r="F210" s="122"/>
+      <c r="D210" s="117"/>
+      <c r="E210" s="117"/>
+      <c r="F210" s="136"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -23638,8 +24049,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="109"/>
-      <c r="E211" s="109"/>
+      <c r="D211" s="117"/>
+      <c r="E211" s="117"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -23663,8 +24074,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="109"/>
-      <c r="E212" s="109"/>
+      <c r="D212" s="117"/>
+      <c r="E212" s="117"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -23688,8 +24099,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="109"/>
-      <c r="E213" s="109"/>
+      <c r="D213" s="117"/>
+      <c r="E213" s="117"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -23713,9 +24124,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="109"/>
-      <c r="E214" s="109"/>
-      <c r="F214" s="120" t="s">
+      <c r="D214" s="117"/>
+      <c r="E214" s="117"/>
+      <c r="F214" s="134" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -23738,9 +24149,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="109"/>
-      <c r="E215" s="109"/>
-      <c r="F215" s="122"/>
+      <c r="D215" s="117"/>
+      <c r="E215" s="117"/>
+      <c r="F215" s="136"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -23761,8 +24172,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="110"/>
-      <c r="E216" s="110"/>
+      <c r="D216" s="118"/>
+      <c r="E216" s="118"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -23848,10 +24259,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="108" t="s">
+      <c r="D219" s="116" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="108" t="s">
+      <c r="E219" s="116" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -23877,8 +24288,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="109"/>
-      <c r="E220" s="109"/>
+      <c r="D220" s="117"/>
+      <c r="E220" s="117"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -23902,8 +24313,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="109"/>
-      <c r="E221" s="109"/>
+      <c r="D221" s="117"/>
+      <c r="E221" s="117"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -23927,8 +24338,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="109"/>
-      <c r="E222" s="109"/>
+      <c r="D222" s="117"/>
+      <c r="E222" s="117"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -23952,8 +24363,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="109"/>
-      <c r="E223" s="109"/>
+      <c r="D223" s="117"/>
+      <c r="E223" s="117"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -23977,8 +24388,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="109"/>
-      <c r="E224" s="109"/>
+      <c r="D224" s="117"/>
+      <c r="E224" s="117"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -24004,8 +24415,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="109"/>
-      <c r="E225" s="109"/>
+      <c r="D225" s="117"/>
+      <c r="E225" s="117"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -24029,8 +24440,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="109"/>
-      <c r="E226" s="109"/>
+      <c r="D226" s="117"/>
+      <c r="E226" s="117"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -24054,8 +24465,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="109"/>
-      <c r="E227" s="109"/>
+      <c r="D227" s="117"/>
+      <c r="E227" s="117"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -24079,8 +24490,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="109"/>
-      <c r="E228" s="109"/>
+      <c r="D228" s="117"/>
+      <c r="E228" s="117"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -24104,8 +24515,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="109"/>
-      <c r="E229" s="109"/>
+      <c r="D229" s="117"/>
+      <c r="E229" s="117"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -24129,8 +24540,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="109"/>
-      <c r="E230" s="109"/>
+      <c r="D230" s="117"/>
+      <c r="E230" s="117"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -24154,8 +24565,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="109"/>
-      <c r="E231" s="109"/>
+      <c r="D231" s="117"/>
+      <c r="E231" s="117"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -24179,8 +24590,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="110"/>
-      <c r="E232" s="110"/>
+      <c r="D232" s="118"/>
+      <c r="E232" s="118"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -26100,21 +26511,19 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -26129,19 +26538,21 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -26152,341 +26563,400 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF615372-07F9-4A76-9222-E3823EA7CCE0}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="130" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" style="130" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="130" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.33203125" style="130" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="24.33203125" style="130" customWidth="1" collapsed="1"/>
-    <col min="6" max="12" width="24.33203125" style="130" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="130"/>
+    <col min="1" max="1" width="2.6640625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="101" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" style="101" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="24.33203125" style="101" customWidth="1" collapsed="1"/>
+    <col min="6" max="12" width="24.33203125" style="101" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="101"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="E2" s="136" t="s">
+      <c r="E2" s="149" t="s">
         <v>549</v>
       </c>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="E3" s="137" t="s">
+      <c r="E3" s="148" t="s">
         <v>554</v>
       </c>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137" t="s">
+      <c r="F3" s="148"/>
+      <c r="G3" s="148" t="s">
         <v>555</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137" t="s">
+      <c r="H3" s="148"/>
+      <c r="I3" s="148" t="s">
         <v>556</v>
       </c>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="133" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="140" t="s">
         <v>564</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="133" t="s">
+      <c r="J4" s="141"/>
+      <c r="K4" s="140" t="s">
         <v>565</v>
       </c>
-      <c r="L4" s="134"/>
+      <c r="L4" s="141"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="104" t="s">
         <v>551</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="104" t="s">
         <v>552</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="104" t="s">
         <v>553</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="F5" s="140" t="s">
+      <c r="F5" s="107" t="s">
         <v>576</v>
       </c>
-      <c r="G5" s="140" t="s">
+      <c r="G5" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="H5" s="140" t="s">
+      <c r="H5" s="107" t="s">
         <v>576</v>
       </c>
-      <c r="I5" s="140" t="s">
+      <c r="I5" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="J5" s="140" t="s">
+      <c r="J5" s="107" t="s">
         <v>576</v>
       </c>
-      <c r="K5" s="140" t="s">
+      <c r="K5" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="L5" s="140" t="s">
+      <c r="L5" s="107" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="25.05" customHeight="1">
-      <c r="B6" s="132">
+    <row r="6" spans="2:12" ht="60" customHeight="1">
+      <c r="B6" s="103">
         <v>1</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="142" t="s">
         <v>577</v>
       </c>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="158" t="s">
         <v>581</v>
       </c>
       <c r="G6" s="145" t="s">
         <v>580</v>
       </c>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
-    </row>
-    <row r="7" spans="2:12" ht="25.05" customHeight="1">
-      <c r="B7" s="132">
+      <c r="H6" s="153" t="s">
+        <v>584</v>
+      </c>
+      <c r="I6" s="150" t="s">
+        <v>586</v>
+      </c>
+      <c r="J6" s="161" t="s">
+        <v>600</v>
+      </c>
+      <c r="K6" s="150" t="s">
+        <v>586</v>
+      </c>
+      <c r="L6" s="153" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="82.8" customHeight="1">
+      <c r="B7" s="103">
         <v>2</v>
       </c>
-      <c r="C7" s="131" t="s">
+      <c r="C7" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="138" t="s">
+      <c r="D7" s="105" t="s">
         <v>563</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="147"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="146"/>
+      <c r="H7" s="150" t="s">
+        <v>585</v>
+      </c>
+      <c r="I7" s="152"/>
+      <c r="J7" s="161" t="s">
+        <v>601</v>
+      </c>
       <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-    </row>
-    <row r="8" spans="2:12" ht="25.05" customHeight="1">
-      <c r="B8" s="132">
+      <c r="L7" s="153" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="81.599999999999994" customHeight="1">
+      <c r="B8" s="103">
         <v>3</v>
       </c>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="D8" s="138" t="s">
+      <c r="D8" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="147"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="146"/>
       <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
+      <c r="I8" s="153" t="s">
+        <v>587</v>
+      </c>
+      <c r="J8" s="161" t="s">
+        <v>602</v>
+      </c>
       <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-    </row>
-    <row r="9" spans="2:12" ht="82.2" customHeight="1">
-      <c r="B9" s="132">
+      <c r="L8" s="156" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="122.4" customHeight="1">
+      <c r="B9" s="103">
         <v>4</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="149" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="147"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="146"/>
       <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
+      <c r="I9" s="153" t="s">
+        <v>588</v>
+      </c>
+      <c r="J9" s="161" t="s">
+        <v>603</v>
+      </c>
       <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-    </row>
-    <row r="10" spans="2:12" ht="25.05" customHeight="1">
-      <c r="B10" s="132">
+      <c r="L9" s="153" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="45" customHeight="1">
+      <c r="B10" s="103">
         <v>5</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="102" t="s">
         <v>557</v>
       </c>
-      <c r="D10" s="138" t="s">
+      <c r="D10" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="144" t="s">
-        <v>583</v>
-      </c>
-      <c r="G10" s="147"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="146"/>
       <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
+      <c r="I10" s="153" t="s">
+        <v>589</v>
+      </c>
+      <c r="J10" s="161" t="s">
+        <v>604</v>
+      </c>
       <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-    </row>
-    <row r="11" spans="2:12" ht="25.05" customHeight="1">
-      <c r="B11" s="132">
+      <c r="L10" s="153" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="84.6" customHeight="1">
+      <c r="B11" s="103">
         <v>6</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="146"/>
       <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
+      <c r="I11" s="153" t="s">
+        <v>590</v>
+      </c>
+      <c r="J11" s="161" t="s">
+        <v>605</v>
+      </c>
       <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-    </row>
-    <row r="12" spans="2:12" ht="25.05" customHeight="1">
-      <c r="B12" s="132">
+      <c r="L11" s="154" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="60" customHeight="1">
+      <c r="B12" s="103">
         <v>7</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="102" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="147"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="146"/>
       <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
+      <c r="I12" s="153" t="s">
+        <v>591</v>
+      </c>
+      <c r="J12" s="161" t="s">
+        <v>606</v>
+      </c>
       <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-    </row>
-    <row r="13" spans="2:12" ht="105.6">
-      <c r="B13" s="132">
+      <c r="L12" s="157"/>
+    </row>
+    <row r="13" spans="2:12" ht="109.2" customHeight="1">
+      <c r="B13" s="103">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="102" t="s">
         <v>558</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="149" t="s">
-        <v>584</v>
-      </c>
-      <c r="G13" s="147"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="146"/>
       <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
+      <c r="I13" s="153" t="s">
+        <v>592</v>
+      </c>
+      <c r="J13" s="161" t="s">
+        <v>607</v>
+      </c>
       <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-    </row>
-    <row r="14" spans="2:12" ht="40.200000000000003" customHeight="1">
-      <c r="B14" s="132">
+      <c r="L13" s="155"/>
+    </row>
+    <row r="14" spans="2:12" ht="56.4" customHeight="1">
+      <c r="B14" s="103">
         <v>9</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="106" t="s">
         <v>572</v>
       </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="144" t="s">
-        <v>583</v>
-      </c>
-      <c r="G14" s="147"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="146"/>
       <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
+      <c r="I14" s="153" t="s">
+        <v>593</v>
+      </c>
+      <c r="J14" s="161" t="s">
+        <v>608</v>
+      </c>
       <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-    </row>
-    <row r="15" spans="2:12" ht="40.200000000000003" customHeight="1">
-      <c r="B15" s="132">
+      <c r="L14" s="154" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="72.599999999999994" customHeight="1">
+      <c r="B15" s="103">
         <v>10</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="102" t="s">
         <v>560</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="106" t="s">
         <v>573</v>
       </c>
-      <c r="E15" s="146"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="147"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="146"/>
       <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
+      <c r="I15" s="153" t="s">
+        <v>594</v>
+      </c>
+      <c r="J15" s="163" t="s">
+        <v>609</v>
+      </c>
       <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-    </row>
-    <row r="16" spans="2:12" ht="105.6">
-      <c r="B16" s="132">
+      <c r="L15" s="157"/>
+    </row>
+    <row r="16" spans="2:12" ht="109.2" customHeight="1">
+      <c r="B16" s="103">
         <v>11</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="102" t="s">
         <v>561</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="106" t="s">
         <v>574</v>
       </c>
-      <c r="E16" s="148"/>
-      <c r="F16" s="149" t="s">
-        <v>585</v>
-      </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="161" t="s">
+        <v>599</v>
+      </c>
+      <c r="J16" s="153" t="s">
+        <v>610</v>
+      </c>
+      <c r="K16" s="152"/>
+      <c r="L16" s="155"/>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="162"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E6:E16"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G6:G16"/>
+  <mergeCells count="14">
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="E6:E16"/>
+    <mergeCell ref="G6:G16"/>
+    <mergeCell ref="H7:H16"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K16"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="F6:F16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testcase_account_ver4.xlsx
+++ b/testcase_account_ver4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\7-Programming-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96016CE4-2C19-4E13-8E16-6C528505E053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098DA89-12AF-4C00-A83F-59118807D4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="166" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="617">
   <si>
     <t>作成者</t>
   </si>
@@ -11231,6 +11231,93 @@
   </si>
   <si>
     <t>アカウント一覧画面が表示される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/11：アカウント登録完了画面とアカウント削除完了画面で「TOPページに戻る」ボタンでリンク付けされているファイルが違うため修正が必要。修正済み。</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/11：100文字以上入力した場合もエラー表示ができるように修正が必要。修正済み。</t>
+    <rPh sb="9" eb="13">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/11：10文字以上入力した場合もエラー表示ができるように修正が必要。修正済み。</t>
+    <rPh sb="8" eb="12">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>シュウセイズ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11643,7 +11730,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11963,41 +12050,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12011,6 +12075,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -12020,16 +12102,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12041,6 +12129,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12049,6 +12143,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12074,12 +12180,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -12089,19 +12189,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12113,12 +12207,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -12472,9 +12562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M255"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G177" sqref="G177"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -12494,12 +12584,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
       <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
@@ -12522,10 +12612,10 @@
       <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="53" t="s">
         <v>3</v>
       </c>
@@ -12839,7 +12929,7 @@
       <c r="F12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="120" t="s">
         <v>107</v>
       </c>
       <c r="H12" s="68">
@@ -12869,7 +12959,7 @@
       <c r="F13" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="119"/>
+      <c r="G13" s="121"/>
       <c r="H13" s="60">
         <v>44354</v>
       </c>
@@ -12897,7 +12987,7 @@
       <c r="F14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="119"/>
+      <c r="G14" s="121"/>
       <c r="H14" s="60">
         <v>44354</v>
       </c>
@@ -12925,7 +13015,7 @@
       <c r="F15" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="119"/>
+      <c r="G15" s="121"/>
       <c r="H15" s="68">
         <v>44354</v>
       </c>
@@ -12953,7 +13043,7 @@
       <c r="F16" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="119"/>
+      <c r="G16" s="121"/>
       <c r="H16" s="60">
         <v>44354</v>
       </c>
@@ -12981,7 +13071,7 @@
       <c r="F17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="119"/>
+      <c r="G17" s="121"/>
       <c r="H17" s="60">
         <v>44354</v>
       </c>
@@ -13009,7 +13099,7 @@
       <c r="F18" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="119"/>
+      <c r="G18" s="121"/>
       <c r="H18" s="68">
         <v>44354</v>
       </c>
@@ -13037,7 +13127,7 @@
       <c r="F19" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="119"/>
+      <c r="G19" s="121"/>
       <c r="H19" s="60">
         <v>44354</v>
       </c>
@@ -13065,7 +13155,7 @@
       <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="119"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="60">
         <v>44354</v>
       </c>
@@ -13093,7 +13183,7 @@
       <c r="F21" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="119"/>
+      <c r="G21" s="121"/>
       <c r="H21" s="68">
         <v>44354</v>
       </c>
@@ -13121,7 +13211,7 @@
       <c r="F22" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="119"/>
+      <c r="G22" s="121"/>
       <c r="H22" s="60">
         <v>44354</v>
       </c>
@@ -13149,7 +13239,7 @@
       <c r="F23" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="112"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="60">
         <v>44354</v>
       </c>
@@ -13607,7 +13697,7 @@
       <c r="F38" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="116" t="s">
+      <c r="G38" s="123" t="s">
         <v>110</v>
       </c>
       <c r="H38" s="68">
@@ -13637,7 +13727,7 @@
       <c r="F39" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="117"/>
+      <c r="G39" s="124"/>
       <c r="H39" s="68">
         <v>44354</v>
       </c>
@@ -13665,7 +13755,7 @@
       <c r="F40" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G40" s="117"/>
+      <c r="G40" s="124"/>
       <c r="H40" s="68">
         <v>44354</v>
       </c>
@@ -13693,7 +13783,7 @@
       <c r="F41" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="117"/>
+      <c r="G41" s="124"/>
       <c r="H41" s="68">
         <v>44354</v>
       </c>
@@ -13721,7 +13811,7 @@
       <c r="F42" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G42" s="118"/>
+      <c r="G42" s="125"/>
       <c r="H42" s="68">
         <v>44354</v>
       </c>
@@ -13873,7 +13963,7 @@
       <c r="F47" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G47" s="116" t="s">
+      <c r="G47" s="123" t="s">
         <v>110</v>
       </c>
       <c r="H47" s="68">
@@ -13903,7 +13993,7 @@
       <c r="F48" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="G48" s="118"/>
+      <c r="G48" s="125"/>
       <c r="H48" s="68">
         <v>44354</v>
       </c>
@@ -14184,7 +14274,7 @@
       <c r="E57" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="111" t="s">
+      <c r="F57" s="120" t="s">
         <v>232</v>
       </c>
       <c r="G57" s="32" t="s">
@@ -14216,7 +14306,7 @@
       <c r="E58" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="119"/>
+      <c r="F58" s="121"/>
       <c r="G58" s="32" t="s">
         <v>233</v>
       </c>
@@ -14243,10 +14333,10 @@
       <c r="D59" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E59" s="127" t="s">
+      <c r="E59" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="F59" s="119"/>
+      <c r="F59" s="121"/>
       <c r="G59" s="37" t="s">
         <v>260</v>
       </c>
@@ -14271,8 +14361,8 @@
       <c r="D60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E60" s="128"/>
-      <c r="F60" s="119"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="121"/>
       <c r="G60" s="37" t="s">
         <v>261</v>
       </c>
@@ -14297,8 +14387,8 @@
       <c r="D61" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="128"/>
-      <c r="F61" s="119"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="121"/>
       <c r="G61" s="37" t="s">
         <v>262</v>
       </c>
@@ -14323,8 +14413,8 @@
       <c r="D62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="128"/>
-      <c r="F62" s="119"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="121"/>
       <c r="G62" s="37" t="s">
         <v>263</v>
       </c>
@@ -14349,8 +14439,8 @@
       <c r="D63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="128"/>
-      <c r="F63" s="119"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="121"/>
       <c r="G63" s="37" t="s">
         <v>264</v>
       </c>
@@ -14375,8 +14465,8 @@
       <c r="D64" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="128"/>
-      <c r="F64" s="119"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="121"/>
       <c r="G64" s="37" t="s">
         <v>265</v>
       </c>
@@ -14401,8 +14491,8 @@
       <c r="D65" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="128"/>
-      <c r="F65" s="119"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="121"/>
       <c r="G65" s="31" t="s">
         <v>272</v>
       </c>
@@ -14427,8 +14517,8 @@
       <c r="D66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="128"/>
-      <c r="F66" s="119"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="121"/>
       <c r="G66" s="31" t="s">
         <v>273</v>
       </c>
@@ -14453,8 +14543,8 @@
       <c r="D67" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="E67" s="128"/>
-      <c r="F67" s="119"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="121"/>
       <c r="G67" s="31" t="s">
         <v>274</v>
       </c>
@@ -14479,8 +14569,8 @@
       <c r="D68" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E68" s="128"/>
-      <c r="F68" s="119"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="121"/>
       <c r="G68" s="31" t="s">
         <v>275</v>
       </c>
@@ -14505,8 +14595,8 @@
       <c r="D69" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E69" s="128"/>
-      <c r="F69" s="119"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="121"/>
       <c r="G69" s="31" t="s">
         <v>275</v>
       </c>
@@ -14531,8 +14621,8 @@
       <c r="D70" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="128"/>
-      <c r="F70" s="119"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="121"/>
       <c r="G70" s="31" t="s">
         <v>270</v>
       </c>
@@ -14557,8 +14647,8 @@
       <c r="D71" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="129"/>
-      <c r="F71" s="112"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="122"/>
       <c r="G71" s="31" t="s">
         <v>271</v>
       </c>
@@ -14619,10 +14709,10 @@
       <c r="D73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="113" t="s">
+      <c r="E73" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="116" t="s">
+      <c r="F73" s="123" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="31" t="s">
@@ -14649,8 +14739,8 @@
       <c r="D74" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="114"/>
-      <c r="F74" s="117"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="124"/>
       <c r="G74" s="31" t="s">
         <v>280</v>
       </c>
@@ -14675,8 +14765,8 @@
       <c r="D75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="117"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="124"/>
       <c r="G75" s="31" t="s">
         <v>281</v>
       </c>
@@ -14701,8 +14791,8 @@
       <c r="D76" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="114"/>
-      <c r="F76" s="117"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="124"/>
       <c r="G76" s="31" t="s">
         <v>282</v>
       </c>
@@ -14727,8 +14817,8 @@
       <c r="D77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="114"/>
-      <c r="F77" s="117"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="124"/>
       <c r="G77" s="31" t="s">
         <v>283</v>
       </c>
@@ -14753,8 +14843,8 @@
       <c r="D78" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E78" s="114"/>
-      <c r="F78" s="117"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="124"/>
       <c r="G78" s="31" t="s">
         <v>284</v>
       </c>
@@ -14779,8 +14869,8 @@
       <c r="D79" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="114"/>
-      <c r="F79" s="117"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="124"/>
       <c r="G79" s="31" t="s">
         <v>289</v>
       </c>
@@ -14805,8 +14895,8 @@
       <c r="D80" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E80" s="114"/>
-      <c r="F80" s="117"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="124"/>
       <c r="G80" s="31" t="s">
         <v>285</v>
       </c>
@@ -14831,8 +14921,8 @@
       <c r="D81" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="114"/>
-      <c r="F81" s="117"/>
+      <c r="E81" s="130"/>
+      <c r="F81" s="124"/>
       <c r="G81" s="31" t="s">
         <v>290</v>
       </c>
@@ -14857,8 +14947,8 @@
       <c r="D82" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="114"/>
-      <c r="F82" s="117"/>
+      <c r="E82" s="130"/>
+      <c r="F82" s="124"/>
       <c r="G82" s="31" t="s">
         <v>286</v>
       </c>
@@ -14883,8 +14973,8 @@
       <c r="D83" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E83" s="114"/>
-      <c r="F83" s="117"/>
+      <c r="E83" s="130"/>
+      <c r="F83" s="124"/>
       <c r="G83" s="31" t="s">
         <v>287</v>
       </c>
@@ -14909,8 +14999,8 @@
       <c r="D84" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="115"/>
-      <c r="F84" s="118"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="125"/>
       <c r="G84" s="31" t="s">
         <v>288</v>
       </c>
@@ -15003,10 +15093,10 @@
       <c r="D87" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E87" s="113" t="s">
+      <c r="E87" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="116" t="s">
+      <c r="F87" s="123" t="s">
         <v>301</v>
       </c>
       <c r="G87" s="31" t="s">
@@ -15033,8 +15123,8 @@
       <c r="D88" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E88" s="114"/>
-      <c r="F88" s="117"/>
+      <c r="E88" s="130"/>
+      <c r="F88" s="124"/>
       <c r="G88" s="31" t="s">
         <v>303</v>
       </c>
@@ -15059,8 +15149,8 @@
       <c r="D89" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="E89" s="114"/>
-      <c r="F89" s="117"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="124"/>
       <c r="G89" s="31" t="s">
         <v>370</v>
       </c>
@@ -15085,8 +15175,8 @@
       <c r="D90" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="115"/>
-      <c r="F90" s="118"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="125"/>
       <c r="G90" s="31" t="s">
         <v>371</v>
       </c>
@@ -15115,10 +15205,10 @@
       <c r="D91" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E91" s="113" t="s">
+      <c r="E91" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="F91" s="111" t="s">
+      <c r="F91" s="120" t="s">
         <v>300</v>
       </c>
       <c r="G91" s="30" t="s">
@@ -15147,8 +15237,8 @@
       <c r="D92" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="114"/>
-      <c r="F92" s="119"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="121"/>
       <c r="G92" s="32" t="s">
         <v>298</v>
       </c>
@@ -15173,8 +15263,8 @@
       <c r="D93" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E93" s="115"/>
-      <c r="F93" s="119"/>
+      <c r="E93" s="131"/>
+      <c r="F93" s="121"/>
       <c r="G93" s="32" t="s">
         <v>302</v>
       </c>
@@ -15206,7 +15296,7 @@
       <c r="E94" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F94" s="119"/>
+      <c r="F94" s="121"/>
       <c r="G94" s="32" t="s">
         <v>354</v>
       </c>
@@ -15234,7 +15324,7 @@
       <c r="E95" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="112"/>
+      <c r="F95" s="122"/>
       <c r="G95" s="32" t="s">
         <v>355</v>
       </c>
@@ -15329,10 +15419,10 @@
       <c r="D98" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="113" t="s">
+      <c r="E98" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="116" t="s">
+      <c r="F98" s="123" t="s">
         <v>305</v>
       </c>
       <c r="G98" s="31" t="s">
@@ -15359,8 +15449,8 @@
       <c r="D99" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E99" s="114"/>
-      <c r="F99" s="117"/>
+      <c r="E99" s="130"/>
+      <c r="F99" s="124"/>
       <c r="G99" s="31" t="s">
         <v>310</v>
       </c>
@@ -15385,8 +15475,8 @@
       <c r="D100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E100" s="114"/>
-      <c r="F100" s="117"/>
+      <c r="E100" s="130"/>
+      <c r="F100" s="124"/>
       <c r="G100" s="31" t="s">
         <v>309</v>
       </c>
@@ -15411,8 +15501,8 @@
       <c r="D101" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="114"/>
-      <c r="F101" s="117"/>
+      <c r="E101" s="130"/>
+      <c r="F101" s="124"/>
       <c r="G101" s="31" t="s">
         <v>308</v>
       </c>
@@ -15437,8 +15527,8 @@
       <c r="D102" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E102" s="114"/>
-      <c r="F102" s="117"/>
+      <c r="E102" s="130"/>
+      <c r="F102" s="124"/>
       <c r="G102" s="31" t="s">
         <v>311</v>
       </c>
@@ -15463,8 +15553,8 @@
       <c r="D103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="114"/>
-      <c r="F103" s="117"/>
+      <c r="E103" s="130"/>
+      <c r="F103" s="124"/>
       <c r="G103" s="31" t="s">
         <v>312</v>
       </c>
@@ -15489,8 +15579,8 @@
       <c r="D104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="114"/>
-      <c r="F104" s="117"/>
+      <c r="E104" s="130"/>
+      <c r="F104" s="124"/>
       <c r="G104" s="31" t="s">
         <v>319</v>
       </c>
@@ -15515,8 +15605,8 @@
       <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E105" s="114"/>
-      <c r="F105" s="117"/>
+      <c r="E105" s="130"/>
+      <c r="F105" s="124"/>
       <c r="G105" s="31" t="s">
         <v>314</v>
       </c>
@@ -15541,8 +15631,8 @@
       <c r="D106" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E106" s="114"/>
-      <c r="F106" s="117"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="124"/>
       <c r="G106" s="31" t="s">
         <v>315</v>
       </c>
@@ -15567,8 +15657,8 @@
       <c r="D107" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E107" s="114"/>
-      <c r="F107" s="117"/>
+      <c r="E107" s="130"/>
+      <c r="F107" s="124"/>
       <c r="G107" s="31" t="s">
         <v>316</v>
       </c>
@@ -15593,8 +15683,8 @@
       <c r="D108" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E108" s="114"/>
-      <c r="F108" s="117"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="124"/>
       <c r="G108" s="31" t="s">
         <v>317</v>
       </c>
@@ -15619,8 +15709,8 @@
       <c r="D109" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="115"/>
-      <c r="F109" s="118"/>
+      <c r="E109" s="131"/>
+      <c r="F109" s="125"/>
       <c r="G109" s="31" t="s">
         <v>318</v>
       </c>
@@ -15717,7 +15807,7 @@
       <c r="F112" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="G112" s="111" t="s">
+      <c r="G112" s="120" t="s">
         <v>107</v>
       </c>
       <c r="H112" s="68">
@@ -15747,7 +15837,7 @@
       <c r="F113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="G113" s="119"/>
+      <c r="G113" s="121"/>
       <c r="H113" s="68">
         <v>44435</v>
       </c>
@@ -15775,7 +15865,7 @@
       <c r="F114" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G114" s="119"/>
+      <c r="G114" s="121"/>
       <c r="H114" s="68">
         <v>44435</v>
       </c>
@@ -15803,7 +15893,7 @@
       <c r="F115" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="G115" s="119"/>
+      <c r="G115" s="121"/>
       <c r="H115" s="68">
         <v>44435</v>
       </c>
@@ -15831,7 +15921,7 @@
       <c r="F116" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="G116" s="119"/>
+      <c r="G116" s="121"/>
       <c r="H116" s="68">
         <v>44435</v>
       </c>
@@ -15859,7 +15949,7 @@
       <c r="F117" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="G117" s="119"/>
+      <c r="G117" s="121"/>
       <c r="H117" s="68">
         <v>44447</v>
       </c>
@@ -15889,7 +15979,7 @@
       <c r="F118" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="G118" s="119"/>
+      <c r="G118" s="121"/>
       <c r="H118" s="68">
         <v>44435</v>
       </c>
@@ -15917,7 +16007,7 @@
       <c r="F119" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="G119" s="119"/>
+      <c r="G119" s="121"/>
       <c r="H119" s="68">
         <v>44435</v>
       </c>
@@ -15945,7 +16035,7 @@
       <c r="F120" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="G120" s="119"/>
+      <c r="G120" s="121"/>
       <c r="H120" s="68">
         <v>44435</v>
       </c>
@@ -15973,7 +16063,7 @@
       <c r="F121" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="G121" s="119"/>
+      <c r="G121" s="121"/>
       <c r="H121" s="68">
         <v>44435</v>
       </c>
@@ -16001,7 +16091,7 @@
       <c r="F122" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="G122" s="119"/>
+      <c r="G122" s="121"/>
       <c r="H122" s="68">
         <v>44435</v>
       </c>
@@ -16029,7 +16119,7 @@
       <c r="F123" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="G123" s="112"/>
+      <c r="G123" s="122"/>
       <c r="H123" s="68">
         <v>44435</v>
       </c>
@@ -16362,7 +16452,7 @@
       <c r="E134" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F134" s="116" t="s">
+      <c r="F134" s="123" t="s">
         <v>344</v>
       </c>
       <c r="G134" s="31" t="s">
@@ -16392,7 +16482,7 @@
       <c r="E135" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F135" s="117"/>
+      <c r="F135" s="124"/>
       <c r="G135" s="32" t="s">
         <v>108</v>
       </c>
@@ -16420,7 +16510,7 @@
       <c r="E136" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F136" s="117"/>
+      <c r="F136" s="124"/>
       <c r="G136" s="32" t="s">
         <v>109</v>
       </c>
@@ -16448,7 +16538,7 @@
       <c r="E137" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F137" s="117"/>
+      <c r="F137" s="124"/>
       <c r="G137" s="32" t="s">
         <v>112</v>
       </c>
@@ -16476,7 +16566,7 @@
       <c r="E138" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F138" s="117"/>
+      <c r="F138" s="124"/>
       <c r="G138" s="32" t="s">
         <v>113</v>
       </c>
@@ -16504,7 +16594,7 @@
       <c r="E139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F139" s="117"/>
+      <c r="F139" s="124"/>
       <c r="G139" s="32" t="s">
         <v>114</v>
       </c>
@@ -16532,7 +16622,7 @@
       <c r="E140" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F140" s="117"/>
+      <c r="F140" s="124"/>
       <c r="G140" s="32" t="s">
         <v>111</v>
       </c>
@@ -16562,7 +16652,7 @@
       <c r="E141" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F141" s="117"/>
+      <c r="F141" s="124"/>
       <c r="G141" s="32" t="s">
         <v>115</v>
       </c>
@@ -16590,7 +16680,7 @@
       <c r="E142" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F142" s="117"/>
+      <c r="F142" s="124"/>
       <c r="G142" s="32" t="s">
         <v>430</v>
       </c>
@@ -16618,7 +16708,7 @@
       <c r="E143" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F143" s="117"/>
+      <c r="F143" s="124"/>
       <c r="G143" s="32" t="s">
         <v>431</v>
       </c>
@@ -16646,7 +16736,7 @@
       <c r="E144" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F144" s="117"/>
+      <c r="F144" s="124"/>
       <c r="G144" s="32" t="s">
         <v>432</v>
       </c>
@@ -16674,7 +16764,7 @@
       <c r="E145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F145" s="117"/>
+      <c r="F145" s="124"/>
       <c r="G145" s="32" t="s">
         <v>433</v>
       </c>
@@ -16702,7 +16792,7 @@
       <c r="E146" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F146" s="117"/>
+      <c r="F146" s="124"/>
       <c r="G146" s="32" t="s">
         <v>116</v>
       </c>
@@ -16730,7 +16820,7 @@
       <c r="E147" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F147" s="117"/>
+      <c r="F147" s="124"/>
       <c r="G147" s="31" t="s">
         <v>347</v>
       </c>
@@ -16758,7 +16848,7 @@
       <c r="E148" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F148" s="118"/>
+      <c r="F148" s="125"/>
       <c r="G148" s="31" t="s">
         <v>348</v>
       </c>
@@ -16790,7 +16880,7 @@
       <c r="E149" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F149" s="116" t="s">
+      <c r="F149" s="123" t="s">
         <v>350</v>
       </c>
       <c r="G149" s="31" t="s">
@@ -16820,7 +16910,7 @@
       <c r="E150" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F150" s="117"/>
+      <c r="F150" s="124"/>
       <c r="G150" s="31" t="s">
         <v>352</v>
       </c>
@@ -16848,7 +16938,7 @@
       <c r="E151" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F151" s="118"/>
+      <c r="F151" s="125"/>
       <c r="G151" s="32" t="s">
         <v>302</v>
       </c>
@@ -16877,13 +16967,13 @@
       <c r="D152" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E152" s="120" t="s">
+      <c r="E152" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="F152" s="116" t="s">
+      <c r="F152" s="123" t="s">
         <v>357</v>
       </c>
-      <c r="G152" s="111" t="s">
+      <c r="G152" s="120" t="s">
         <v>358</v>
       </c>
       <c r="H152" s="68">
@@ -16907,9 +16997,9 @@
       <c r="D153" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E153" s="121"/>
-      <c r="F153" s="117"/>
-      <c r="G153" s="119"/>
+      <c r="E153" s="133"/>
+      <c r="F153" s="124"/>
+      <c r="G153" s="121"/>
       <c r="H153" s="68">
         <v>44435</v>
       </c>
@@ -16931,9 +17021,9 @@
       <c r="D154" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="121"/>
-      <c r="F154" s="117"/>
-      <c r="G154" s="119"/>
+      <c r="E154" s="133"/>
+      <c r="F154" s="124"/>
+      <c r="G154" s="121"/>
       <c r="H154" s="68">
         <v>44435</v>
       </c>
@@ -16955,9 +17045,9 @@
       <c r="D155" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="121"/>
-      <c r="F155" s="117"/>
-      <c r="G155" s="119"/>
+      <c r="E155" s="133"/>
+      <c r="F155" s="124"/>
+      <c r="G155" s="121"/>
       <c r="H155" s="68">
         <v>44435</v>
       </c>
@@ -16979,9 +17069,9 @@
       <c r="D156" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E156" s="121"/>
-      <c r="F156" s="117"/>
-      <c r="G156" s="119"/>
+      <c r="E156" s="133"/>
+      <c r="F156" s="124"/>
+      <c r="G156" s="121"/>
       <c r="H156" s="68">
         <v>44435</v>
       </c>
@@ -17003,9 +17093,9 @@
       <c r="D157" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E157" s="121"/>
-      <c r="F157" s="117"/>
-      <c r="G157" s="119"/>
+      <c r="E157" s="133"/>
+      <c r="F157" s="124"/>
+      <c r="G157" s="121"/>
       <c r="H157" s="68">
         <v>44447</v>
       </c>
@@ -17029,9 +17119,9 @@
       <c r="D158" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E158" s="121"/>
-      <c r="F158" s="117"/>
-      <c r="G158" s="119"/>
+      <c r="E158" s="133"/>
+      <c r="F158" s="124"/>
+      <c r="G158" s="121"/>
       <c r="H158" s="68">
         <v>44435</v>
       </c>
@@ -17053,9 +17143,9 @@
       <c r="D159" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="121"/>
-      <c r="F159" s="117"/>
-      <c r="G159" s="119"/>
+      <c r="E159" s="133"/>
+      <c r="F159" s="124"/>
+      <c r="G159" s="121"/>
       <c r="H159" s="68">
         <v>44435</v>
       </c>
@@ -17077,9 +17167,9 @@
       <c r="D160" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E160" s="121"/>
-      <c r="F160" s="117"/>
-      <c r="G160" s="119"/>
+      <c r="E160" s="133"/>
+      <c r="F160" s="124"/>
+      <c r="G160" s="121"/>
       <c r="H160" s="68">
         <v>44435</v>
       </c>
@@ -17101,9 +17191,9 @@
       <c r="D161" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E161" s="121"/>
-      <c r="F161" s="117"/>
-      <c r="G161" s="119"/>
+      <c r="E161" s="133"/>
+      <c r="F161" s="124"/>
+      <c r="G161" s="121"/>
       <c r="H161" s="68">
         <v>44435</v>
       </c>
@@ -17125,9 +17215,9 @@
       <c r="D162" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E162" s="121"/>
-      <c r="F162" s="117"/>
-      <c r="G162" s="119"/>
+      <c r="E162" s="133"/>
+      <c r="F162" s="124"/>
+      <c r="G162" s="121"/>
       <c r="H162" s="68">
         <v>44435</v>
       </c>
@@ -17149,9 +17239,9 @@
       <c r="D163" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="E163" s="121"/>
-      <c r="F163" s="117"/>
-      <c r="G163" s="112"/>
+      <c r="E163" s="133"/>
+      <c r="F163" s="124"/>
+      <c r="G163" s="122"/>
       <c r="H163" s="68">
         <v>44435</v>
       </c>
@@ -17173,8 +17263,8 @@
       <c r="D164" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E164" s="121"/>
-      <c r="F164" s="117"/>
+      <c r="E164" s="133"/>
+      <c r="F164" s="124"/>
       <c r="G164" s="31" t="s">
         <v>359</v>
       </c>
@@ -17199,8 +17289,8 @@
       <c r="D165" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="E165" s="122"/>
-      <c r="F165" s="118"/>
+      <c r="E165" s="134"/>
+      <c r="F165" s="125"/>
       <c r="G165" s="31" t="s">
         <v>360</v>
       </c>
@@ -17270,10 +17360,16 @@
       <c r="G167" s="31" t="s">
         <v>535</v>
       </c>
-      <c r="H167" s="12"/>
-      <c r="I167" s="12"/>
+      <c r="H167" s="68">
+        <v>44480</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J167" s="30"/>
-      <c r="K167" s="39"/>
+      <c r="K167" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L167" s="11"/>
     </row>
     <row r="168" spans="1:12" ht="30">
@@ -17291,13 +17387,19 @@
       <c r="F168" s="37" t="s">
         <v>541</v>
       </c>
-      <c r="G168" s="111" t="s">
+      <c r="G168" s="120" t="s">
         <v>539</v>
       </c>
-      <c r="H168" s="12"/>
-      <c r="I168" s="12"/>
+      <c r="H168" s="68">
+        <v>44480</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J168" s="30"/>
-      <c r="K168" s="39"/>
+      <c r="K168" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L168" s="11"/>
     </row>
     <row r="169" spans="1:12" ht="30">
@@ -17313,11 +17415,17 @@
       <c r="F169" s="37" t="s">
         <v>540</v>
       </c>
-      <c r="G169" s="112"/>
-      <c r="H169" s="12"/>
-      <c r="I169" s="12"/>
+      <c r="G169" s="122"/>
+      <c r="H169" s="68">
+        <v>44480</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J169" s="30"/>
-      <c r="K169" s="39"/>
+      <c r="K169" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L169" s="11"/>
     </row>
     <row r="170" spans="1:12" ht="90">
@@ -17338,10 +17446,18 @@
       <c r="G170" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="H170" s="12"/>
-      <c r="I170" s="12"/>
-      <c r="J170" s="30"/>
-      <c r="K170" s="39"/>
+      <c r="H170" s="68">
+        <v>44480</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J170" s="164" t="s">
+        <v>615</v>
+      </c>
+      <c r="K170" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L170" s="11"/>
     </row>
     <row r="171" spans="1:12" ht="90">
@@ -17360,10 +17476,18 @@
       <c r="G171" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="30"/>
-      <c r="K171" s="39"/>
+      <c r="H171" s="68">
+        <v>44480</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J171" s="164" t="s">
+        <v>616</v>
+      </c>
+      <c r="K171" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L171" s="11"/>
     </row>
     <row r="172" spans="1:12" ht="45">
@@ -17384,13 +17508,19 @@
       <c r="G172" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
+      <c r="H172" s="68">
+        <v>44480</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="J172" s="30"/>
-      <c r="K172" s="39"/>
+      <c r="K172" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L172" s="11"/>
     </row>
-    <row r="173" spans="1:12" ht="45">
+    <row r="173" spans="1:12" ht="75">
       <c r="A173" s="12"/>
       <c r="B173" s="48" t="s">
         <v>578</v>
@@ -17410,10 +17540,18 @@
       <c r="G173" s="31" t="s">
         <v>583</v>
       </c>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="30"/>
-      <c r="K173" s="39"/>
+      <c r="H173" s="68">
+        <v>44480</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J173" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="K173" s="39" t="s">
+        <v>144</v>
+      </c>
       <c r="L173" s="11"/>
     </row>
     <row r="174" spans="1:12" ht="15">
@@ -18566,12 +18704,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G12:G23"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="E59:E71"/>
-    <mergeCell ref="F57:F71"/>
     <mergeCell ref="G168:G169"/>
     <mergeCell ref="E73:E84"/>
     <mergeCell ref="F73:F84"/>
@@ -18587,6 +18719,12 @@
     <mergeCell ref="G112:G123"/>
     <mergeCell ref="F134:F148"/>
     <mergeCell ref="F149:F151"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G12:G23"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="E59:E71"/>
+    <mergeCell ref="F57:F71"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -18620,11 +18758,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="132"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="138"/>
       <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
@@ -18647,9 +18785,9 @@
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="133"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="53" t="s">
         <v>3</v>
       </c>
@@ -18817,13 +18955,13 @@
       <c r="C8" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="120" t="s">
         <v>204</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="120" t="s">
         <v>202</v>
       </c>
       <c r="G8" s="60">
@@ -18843,11 +18981,11 @@
       <c r="C9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="119"/>
+      <c r="D9" s="121"/>
       <c r="E9" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="119"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="60">
         <v>44369</v>
       </c>
@@ -18865,11 +19003,11 @@
       <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="119"/>
+      <c r="D10" s="121"/>
       <c r="E10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="119"/>
+      <c r="F10" s="121"/>
       <c r="G10" s="60">
         <v>44369</v>
       </c>
@@ -18887,11 +19025,11 @@
       <c r="C11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="119"/>
+      <c r="D11" s="121"/>
       <c r="E11" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="119"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="60">
         <v>44369</v>
       </c>
@@ -18909,11 +19047,11 @@
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="119"/>
+      <c r="D12" s="121"/>
       <c r="E12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="119"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="60">
         <v>44369</v>
       </c>
@@ -18931,11 +19069,11 @@
       <c r="C13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="119"/>
+      <c r="D13" s="121"/>
       <c r="E13" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="119"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="60">
         <v>44369</v>
       </c>
@@ -18953,11 +19091,11 @@
       <c r="C14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="119"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="60">
         <v>44369</v>
       </c>
@@ -18975,11 +19113,11 @@
       <c r="C15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="119"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="119"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="60">
         <v>44369</v>
       </c>
@@ -18997,11 +19135,11 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="119"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="119"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="60">
         <v>44369</v>
       </c>
@@ -19019,11 +19157,11 @@
       <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="119"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="119"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="60">
         <v>44369</v>
       </c>
@@ -19041,11 +19179,11 @@
       <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="119"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="60">
         <v>44369</v>
       </c>
@@ -19063,11 +19201,11 @@
       <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="112"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="112"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="60">
         <v>44369</v>
       </c>
@@ -19088,13 +19226,13 @@
       <c r="C20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="120" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="120" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="60">
@@ -19117,9 +19255,9 @@
       <c r="C21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="119"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="60">
         <v>44369</v>
       </c>
@@ -19140,9 +19278,9 @@
       <c r="C22" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="119"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="60">
         <v>44369</v>
       </c>
@@ -19163,9 +19301,9 @@
       <c r="C23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="138"/>
-      <c r="F23" s="119"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="60">
         <v>44369</v>
       </c>
@@ -19186,9 +19324,9 @@
       <c r="C24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="112"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="122"/>
       <c r="G24" s="60">
         <v>44369</v>
       </c>
@@ -19209,8 +19347,8 @@
       <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="119"/>
-      <c r="E25" s="138"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="141"/>
       <c r="F25" s="31" t="s">
         <v>186</v>
       </c>
@@ -19234,9 +19372,9 @@
       <c r="C26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="111" t="s">
+      <c r="D26" s="121"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="120" t="s">
         <v>187</v>
       </c>
       <c r="G26" s="60">
@@ -19259,9 +19397,9 @@
       <c r="C27" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="119"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="121"/>
       <c r="G27" s="60">
         <v>44369</v>
       </c>
@@ -19282,9 +19420,9 @@
       <c r="C28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="119"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="60">
         <v>44369</v>
       </c>
@@ -19305,9 +19443,9 @@
       <c r="C29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="119"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="121"/>
       <c r="G29" s="60">
         <v>44369</v>
       </c>
@@ -19328,9 +19466,9 @@
       <c r="C30" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="119"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="60">
         <v>44369</v>
       </c>
@@ -19351,9 +19489,9 @@
       <c r="C31" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="112"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="60">
         <v>44369</v>
       </c>
@@ -19376,7 +19514,7 @@
       <c r="C32" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="120" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="31" t="s">
@@ -19405,7 +19543,7 @@
       <c r="C33" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="119"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="31" t="s">
         <v>168</v>
       </c>
@@ -19432,7 +19570,7 @@
       <c r="C34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="119"/>
+      <c r="D34" s="121"/>
       <c r="E34" s="31" t="s">
         <v>169</v>
       </c>
@@ -19459,7 +19597,7 @@
       <c r="C35" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="119"/>
+      <c r="D35" s="121"/>
       <c r="E35" s="31" t="s">
         <v>169</v>
       </c>
@@ -19486,7 +19624,7 @@
       <c r="C36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="119"/>
+      <c r="D36" s="121"/>
       <c r="E36" s="31" t="s">
         <v>170</v>
       </c>
@@ -19513,7 +19651,7 @@
       <c r="C37" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="119"/>
+      <c r="D37" s="121"/>
       <c r="E37" s="31" t="s">
         <v>171</v>
       </c>
@@ -19540,7 +19678,7 @@
       <c r="C38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="119"/>
+      <c r="D38" s="121"/>
       <c r="E38" s="31" t="s">
         <v>172</v>
       </c>
@@ -19567,7 +19705,7 @@
       <c r="C39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="119"/>
+      <c r="D39" s="121"/>
       <c r="E39" s="31" t="s">
         <v>173</v>
       </c>
@@ -19594,7 +19732,7 @@
       <c r="C40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="119"/>
+      <c r="D40" s="121"/>
       <c r="E40" s="31" t="s">
         <v>174</v>
       </c>
@@ -19621,7 +19759,7 @@
       <c r="C41" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="112"/>
+      <c r="D41" s="122"/>
       <c r="E41" s="31" t="s">
         <v>175</v>
       </c>
@@ -19650,13 +19788,13 @@
       <c r="C42" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="120" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="116" t="s">
+      <c r="E42" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="F42" s="116" t="s">
+      <c r="F42" s="123" t="s">
         <v>206</v>
       </c>
       <c r="G42" s="60">
@@ -19679,9 +19817,9 @@
       <c r="C43" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="121"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
       <c r="G43" s="60">
         <v>44369</v>
       </c>
@@ -19702,9 +19840,9 @@
       <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="121"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
       <c r="G44" s="60">
         <v>44369</v>
       </c>
@@ -19725,9 +19863,9 @@
       <c r="C45" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="121"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
       <c r="G45" s="60">
         <v>44369</v>
       </c>
@@ -19748,9 +19886,9 @@
       <c r="C46" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="121"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
       <c r="G46" s="60">
         <v>44369</v>
       </c>
@@ -19771,9 +19909,9 @@
       <c r="C47" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="121"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
       <c r="G47" s="60">
         <v>44369</v>
       </c>
@@ -19794,9 +19932,9 @@
       <c r="C48" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="121"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
       <c r="G48" s="60">
         <v>44369</v>
       </c>
@@ -19817,9 +19955,9 @@
       <c r="C49" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="121"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
       <c r="G49" s="60">
         <v>44369</v>
       </c>
@@ -19840,9 +19978,9 @@
       <c r="C50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="121"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
       <c r="G50" s="60">
         <v>44369</v>
       </c>
@@ -19863,9 +20001,9 @@
       <c r="C51" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="121"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
       <c r="G51" s="60">
         <v>44369</v>
       </c>
@@ -19886,9 +20024,9 @@
       <c r="C52" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="121"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
       <c r="G52" s="60">
         <v>44369</v>
       </c>
@@ -19909,9 +20047,9 @@
       <c r="C53" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="122"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="118"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
       <c r="G53" s="60">
         <v>44369</v>
       </c>
@@ -19934,13 +20072,13 @@
       <c r="C54" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="111" t="s">
+      <c r="D54" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="E54" s="116" t="s">
+      <c r="E54" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="F54" s="134" t="s">
+      <c r="F54" s="135" t="s">
         <v>178</v>
       </c>
       <c r="G54" s="60">
@@ -19963,9 +20101,9 @@
       <c r="C55" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="121"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="135"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="136"/>
       <c r="G55" s="60">
         <v>44369</v>
       </c>
@@ -19986,9 +20124,9 @@
       <c r="C56" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="121"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="135"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="136"/>
       <c r="G56" s="60">
         <v>44369</v>
       </c>
@@ -20009,9 +20147,9 @@
       <c r="C57" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="121"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="135"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="136"/>
       <c r="G57" s="60">
         <v>44369</v>
       </c>
@@ -20032,9 +20170,9 @@
       <c r="C58" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="121"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="135"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="136"/>
       <c r="G58" s="60">
         <v>44369</v>
       </c>
@@ -20055,9 +20193,9 @@
       <c r="C59" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="121"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="136"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="137"/>
       <c r="G59" s="60">
         <v>44369</v>
       </c>
@@ -20078,8 +20216,8 @@
       <c r="C60" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="121"/>
-      <c r="E60" s="117"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="124"/>
       <c r="F60" s="32" t="s">
         <v>179</v>
       </c>
@@ -20103,8 +20241,8 @@
       <c r="C61" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="121"/>
-      <c r="E61" s="117"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="124"/>
       <c r="F61" s="32" t="s">
         <v>182</v>
       </c>
@@ -20128,8 +20266,8 @@
       <c r="C62" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="121"/>
-      <c r="E62" s="117"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="124"/>
       <c r="F62" s="32" t="s">
         <v>181</v>
       </c>
@@ -20153,9 +20291,9 @@
       <c r="C63" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="121"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="134" t="s">
+      <c r="D63" s="133"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="135" t="s">
         <v>182</v>
       </c>
       <c r="G63" s="60">
@@ -20178,9 +20316,9 @@
       <c r="C64" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="121"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="136"/>
+      <c r="D64" s="133"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="137"/>
       <c r="G64" s="60">
         <v>44369</v>
       </c>
@@ -20201,8 +20339,8 @@
       <c r="C65" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="122"/>
-      <c r="E65" s="118"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="125"/>
       <c r="F65" s="32" t="s">
         <v>180</v>
       </c>
@@ -20228,13 +20366,13 @@
       <c r="C66" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="111" t="s">
+      <c r="D66" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="111" t="s">
+      <c r="E66" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="F66" s="116" t="s">
+      <c r="F66" s="123" t="s">
         <v>164</v>
       </c>
       <c r="G66" s="60">
@@ -20257,9 +20395,9 @@
       <c r="C67" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="121"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="117"/>
+      <c r="D67" s="133"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="124"/>
       <c r="G67" s="60">
         <v>44369</v>
       </c>
@@ -20280,9 +20418,9 @@
       <c r="C68" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="121"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="117"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="124"/>
       <c r="G68" s="60">
         <v>44369</v>
       </c>
@@ -20303,9 +20441,9 @@
       <c r="C69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="121"/>
-      <c r="E69" s="119"/>
-      <c r="F69" s="117"/>
+      <c r="D69" s="133"/>
+      <c r="E69" s="121"/>
+      <c r="F69" s="124"/>
       <c r="G69" s="60">
         <v>44369</v>
       </c>
@@ -20326,9 +20464,9 @@
       <c r="C70" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="121"/>
-      <c r="E70" s="119"/>
-      <c r="F70" s="117"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="124"/>
       <c r="G70" s="60">
         <v>44369</v>
       </c>
@@ -20349,9 +20487,9 @@
       <c r="C71" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="121"/>
-      <c r="E71" s="119"/>
-      <c r="F71" s="117"/>
+      <c r="D71" s="133"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="124"/>
       <c r="G71" s="60">
         <v>44369</v>
       </c>
@@ -20372,9 +20510,9 @@
       <c r="C72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="121"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="117"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="124"/>
       <c r="G72" s="60">
         <v>44369</v>
       </c>
@@ -20395,9 +20533,9 @@
       <c r="C73" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="121"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="117"/>
+      <c r="D73" s="133"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="124"/>
       <c r="G73" s="60">
         <v>44369</v>
       </c>
@@ -20418,9 +20556,9 @@
       <c r="C74" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="121"/>
-      <c r="E74" s="119"/>
-      <c r="F74" s="117"/>
+      <c r="D74" s="133"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="124"/>
       <c r="G74" s="60">
         <v>44369</v>
       </c>
@@ -20441,9 +20579,9 @@
       <c r="C75" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="121"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="117"/>
+      <c r="D75" s="133"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="124"/>
       <c r="G75" s="60">
         <v>44369</v>
       </c>
@@ -20464,9 +20602,9 @@
       <c r="C76" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="121"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="117"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="124"/>
       <c r="G76" s="60">
         <v>44369</v>
       </c>
@@ -20487,9 +20625,9 @@
       <c r="C77" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="122"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="118"/>
+      <c r="D77" s="134"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="125"/>
       <c r="G77" s="60">
         <v>44369</v>
       </c>
@@ -20545,10 +20683,10 @@
       <c r="C79" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D79" s="111" t="s">
+      <c r="D79" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="E79" s="111" t="s">
+      <c r="E79" s="120" t="s">
         <v>237</v>
       </c>
       <c r="F79" s="32" t="s">
@@ -20574,8 +20712,8 @@
       <c r="C80" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="119"/>
-      <c r="E80" s="119"/>
+      <c r="D80" s="121"/>
+      <c r="E80" s="121"/>
       <c r="F80" s="32" t="s">
         <v>191</v>
       </c>
@@ -20599,8 +20737,8 @@
       <c r="C81" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="119"/>
-      <c r="E81" s="119"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="121"/>
       <c r="F81" s="32" t="s">
         <v>208</v>
       </c>
@@ -20624,8 +20762,8 @@
       <c r="C82" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="119"/>
-      <c r="E82" s="119"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
       <c r="F82" s="32" t="s">
         <v>209</v>
       </c>
@@ -20649,8 +20787,8 @@
       <c r="C83" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="119"/>
-      <c r="E83" s="119"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="32" t="s">
         <v>210</v>
       </c>
@@ -20674,8 +20812,8 @@
       <c r="C84" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="119"/>
-      <c r="E84" s="119"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
       <c r="F84" s="32" t="s">
         <v>211</v>
       </c>
@@ -20699,8 +20837,8 @@
       <c r="C85" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="119"/>
-      <c r="E85" s="119"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
       <c r="F85" s="32" t="s">
         <v>212</v>
       </c>
@@ -20724,8 +20862,8 @@
       <c r="C86" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="119"/>
-      <c r="E86" s="119"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
       <c r="F86" s="32" t="s">
         <v>213</v>
       </c>
@@ -20749,8 +20887,8 @@
       <c r="C87" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="119"/>
-      <c r="E87" s="119"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
       <c r="F87" s="32" t="s">
         <v>214</v>
       </c>
@@ -20774,8 +20912,8 @@
       <c r="C88" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="119"/>
-      <c r="E88" s="119"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
       <c r="F88" s="32" t="s">
         <v>215</v>
       </c>
@@ -20799,8 +20937,8 @@
       <c r="C89" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="119"/>
-      <c r="E89" s="119"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="121"/>
       <c r="F89" s="32" t="s">
         <v>216</v>
       </c>
@@ -20824,8 +20962,8 @@
       <c r="C90" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="119"/>
-      <c r="E90" s="119"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
       <c r="F90" s="32" t="s">
         <v>217</v>
       </c>
@@ -20849,8 +20987,8 @@
       <c r="C91" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="119"/>
-      <c r="E91" s="119"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
       <c r="F91" s="32" t="s">
         <v>218</v>
       </c>
@@ -20874,8 +21012,8 @@
       <c r="C92" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="119"/>
-      <c r="E92" s="119"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121"/>
       <c r="F92" s="31" t="s">
         <v>224</v>
       </c>
@@ -20899,8 +21037,8 @@
       <c r="C93" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="119"/>
-      <c r="E93" s="119"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
       <c r="F93" s="31" t="s">
         <v>225</v>
       </c>
@@ -20926,8 +21064,8 @@
       <c r="C94" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D94" s="112"/>
-      <c r="E94" s="112"/>
+      <c r="D94" s="122"/>
+      <c r="E94" s="122"/>
       <c r="F94" s="31" t="s">
         <v>226</v>
       </c>
@@ -21046,10 +21184,10 @@
       <c r="C98" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D98" s="116" t="s">
+      <c r="D98" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="E98" s="116" t="s">
+      <c r="E98" s="123" t="s">
         <v>241</v>
       </c>
       <c r="F98" s="37" t="s">
@@ -21075,8 +21213,8 @@
       <c r="C99" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="130"/>
-      <c r="E99" s="117"/>
+      <c r="D99" s="143"/>
+      <c r="E99" s="124"/>
       <c r="F99" s="37" t="s">
         <v>261</v>
       </c>
@@ -21100,8 +21238,8 @@
       <c r="C100" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="130"/>
-      <c r="E100" s="117"/>
+      <c r="D100" s="143"/>
+      <c r="E100" s="124"/>
       <c r="F100" s="37" t="s">
         <v>262</v>
       </c>
@@ -21125,8 +21263,8 @@
       <c r="C101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="130"/>
-      <c r="E101" s="117"/>
+      <c r="D101" s="143"/>
+      <c r="E101" s="124"/>
       <c r="F101" s="37" t="s">
         <v>263</v>
       </c>
@@ -21150,8 +21288,8 @@
       <c r="C102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="130"/>
-      <c r="E102" s="117"/>
+      <c r="D102" s="143"/>
+      <c r="E102" s="124"/>
       <c r="F102" s="37" t="s">
         <v>264</v>
       </c>
@@ -21175,8 +21313,8 @@
       <c r="C103" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D103" s="130"/>
-      <c r="E103" s="117"/>
+      <c r="D103" s="143"/>
+      <c r="E103" s="124"/>
       <c r="F103" s="37" t="s">
         <v>265</v>
       </c>
@@ -21200,8 +21338,8 @@
       <c r="C104" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D104" s="130"/>
-      <c r="E104" s="117"/>
+      <c r="D104" s="143"/>
+      <c r="E104" s="124"/>
       <c r="F104" s="37" t="s">
         <v>266</v>
       </c>
@@ -21225,8 +21363,8 @@
       <c r="C105" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D105" s="130"/>
-      <c r="E105" s="117"/>
+      <c r="D105" s="143"/>
+      <c r="E105" s="124"/>
       <c r="F105" s="37" t="s">
         <v>267</v>
       </c>
@@ -21250,8 +21388,8 @@
       <c r="C106" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="130"/>
-      <c r="E106" s="117"/>
+      <c r="D106" s="143"/>
+      <c r="E106" s="124"/>
       <c r="F106" s="37" t="s">
         <v>268</v>
       </c>
@@ -21275,8 +21413,8 @@
       <c r="C107" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="130"/>
-      <c r="E107" s="117"/>
+      <c r="D107" s="143"/>
+      <c r="E107" s="124"/>
       <c r="F107" s="37" t="s">
         <v>269</v>
       </c>
@@ -21300,8 +21438,8 @@
       <c r="C108" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="131"/>
-      <c r="E108" s="118"/>
+      <c r="D108" s="144"/>
+      <c r="E108" s="125"/>
       <c r="F108" s="37" t="s">
         <v>269</v>
       </c>
@@ -21478,10 +21616,10 @@
       <c r="C114" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="116" t="s">
+      <c r="D114" s="123" t="s">
         <v>372</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="123" t="s">
         <v>373</v>
       </c>
       <c r="F114" s="37" t="s">
@@ -21507,8 +21645,8 @@
       <c r="C115" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D115" s="117"/>
-      <c r="E115" s="117"/>
+      <c r="D115" s="124"/>
+      <c r="E115" s="124"/>
       <c r="F115" s="37" t="s">
         <v>412</v>
       </c>
@@ -21532,8 +21670,8 @@
       <c r="C116" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="117"/>
-      <c r="E116" s="117"/>
+      <c r="D116" s="124"/>
+      <c r="E116" s="124"/>
       <c r="F116" s="37" t="s">
         <v>413</v>
       </c>
@@ -21557,8 +21695,8 @@
       <c r="C117" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="117"/>
-      <c r="E117" s="117"/>
+      <c r="D117" s="124"/>
+      <c r="E117" s="124"/>
       <c r="F117" s="37" t="s">
         <v>414</v>
       </c>
@@ -21582,8 +21720,8 @@
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="117"/>
-      <c r="E118" s="117"/>
+      <c r="D118" s="124"/>
+      <c r="E118" s="124"/>
       <c r="F118" s="37" t="s">
         <v>415</v>
       </c>
@@ -21607,8 +21745,8 @@
       <c r="C119" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="117"/>
-      <c r="E119" s="117"/>
+      <c r="D119" s="124"/>
+      <c r="E119" s="124"/>
       <c r="F119" s="37" t="s">
         <v>416</v>
       </c>
@@ -21632,8 +21770,8 @@
       <c r="C120" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="117"/>
-      <c r="E120" s="117"/>
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
       <c r="F120" s="37" t="s">
         <v>417</v>
       </c>
@@ -21657,8 +21795,8 @@
       <c r="C121" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
+      <c r="D121" s="124"/>
+      <c r="E121" s="124"/>
       <c r="F121" s="37" t="s">
         <v>418</v>
       </c>
@@ -21682,8 +21820,8 @@
       <c r="C122" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D122" s="117"/>
-      <c r="E122" s="117"/>
+      <c r="D122" s="124"/>
+      <c r="E122" s="124"/>
       <c r="F122" s="37" t="s">
         <v>419</v>
       </c>
@@ -21707,8 +21845,8 @@
       <c r="C123" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="117"/>
-      <c r="E123" s="117"/>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
       <c r="F123" s="37" t="s">
         <v>420</v>
       </c>
@@ -21732,8 +21870,8 @@
       <c r="C124" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="117"/>
-      <c r="E124" s="117"/>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
       <c r="F124" s="37" t="s">
         <v>421</v>
       </c>
@@ -21757,8 +21895,8 @@
       <c r="C125" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="118"/>
-      <c r="E125" s="118"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
       <c r="F125" s="37" t="s">
         <v>422</v>
       </c>
@@ -21912,13 +22050,13 @@
       <c r="C130" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="116" t="s">
+      <c r="D130" s="123" t="s">
         <v>491</v>
       </c>
-      <c r="E130" s="111" t="s">
+      <c r="E130" s="120" t="s">
         <v>489</v>
       </c>
-      <c r="F130" s="116" t="s">
+      <c r="F130" s="123" t="s">
         <v>492</v>
       </c>
       <c r="G130" s="93">
@@ -21941,9 +22079,9 @@
       <c r="C131" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D131" s="117"/>
-      <c r="E131" s="119"/>
-      <c r="F131" s="117"/>
+      <c r="D131" s="124"/>
+      <c r="E131" s="121"/>
+      <c r="F131" s="124"/>
       <c r="G131" s="93">
         <v>44439</v>
       </c>
@@ -21964,9 +22102,9 @@
       <c r="C132" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="117"/>
-      <c r="E132" s="119"/>
-      <c r="F132" s="117"/>
+      <c r="D132" s="124"/>
+      <c r="E132" s="121"/>
+      <c r="F132" s="124"/>
       <c r="G132" s="93">
         <v>44439</v>
       </c>
@@ -21987,9 +22125,9 @@
       <c r="C133" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="117"/>
-      <c r="E133" s="119"/>
-      <c r="F133" s="117"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="121"/>
+      <c r="F133" s="124"/>
       <c r="G133" s="93">
         <v>44439</v>
       </c>
@@ -22010,9 +22148,9 @@
       <c r="C134" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="117"/>
-      <c r="E134" s="119"/>
-      <c r="F134" s="117"/>
+      <c r="D134" s="124"/>
+      <c r="E134" s="121"/>
+      <c r="F134" s="124"/>
       <c r="G134" s="93">
         <v>44439</v>
       </c>
@@ -22033,9 +22171,9 @@
       <c r="C135" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="117"/>
-      <c r="E135" s="119"/>
-      <c r="F135" s="117"/>
+      <c r="D135" s="124"/>
+      <c r="E135" s="121"/>
+      <c r="F135" s="124"/>
       <c r="G135" s="93">
         <v>44439</v>
       </c>
@@ -22056,9 +22194,9 @@
       <c r="C136" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="117"/>
-      <c r="E136" s="119"/>
-      <c r="F136" s="117"/>
+      <c r="D136" s="124"/>
+      <c r="E136" s="121"/>
+      <c r="F136" s="124"/>
       <c r="G136" s="93">
         <v>44439</v>
       </c>
@@ -22079,9 +22217,9 @@
       <c r="C137" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D137" s="117"/>
-      <c r="E137" s="119"/>
-      <c r="F137" s="117"/>
+      <c r="D137" s="124"/>
+      <c r="E137" s="121"/>
+      <c r="F137" s="124"/>
       <c r="G137" s="93">
         <v>44439</v>
       </c>
@@ -22102,9 +22240,9 @@
       <c r="C138" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="117"/>
-      <c r="E138" s="119"/>
-      <c r="F138" s="117"/>
+      <c r="D138" s="124"/>
+      <c r="E138" s="121"/>
+      <c r="F138" s="124"/>
       <c r="G138" s="93">
         <v>44439</v>
       </c>
@@ -22125,9 +22263,9 @@
       <c r="C139" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="117"/>
-      <c r="E139" s="119"/>
-      <c r="F139" s="117"/>
+      <c r="D139" s="124"/>
+      <c r="E139" s="121"/>
+      <c r="F139" s="124"/>
       <c r="G139" s="93">
         <v>44439</v>
       </c>
@@ -22148,9 +22286,9 @@
       <c r="C140" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D140" s="117"/>
-      <c r="E140" s="119"/>
-      <c r="F140" s="117"/>
+      <c r="D140" s="124"/>
+      <c r="E140" s="121"/>
+      <c r="F140" s="124"/>
       <c r="G140" s="93">
         <v>44439</v>
       </c>
@@ -22171,9 +22309,9 @@
       <c r="C141" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D141" s="118"/>
-      <c r="E141" s="112"/>
-      <c r="F141" s="118"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="122"/>
+      <c r="F141" s="125"/>
       <c r="G141" s="93">
         <v>44439</v>
       </c>
@@ -22258,10 +22396,10 @@
       <c r="C144" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D144" s="116" t="s">
+      <c r="D144" s="123" t="s">
         <v>384</v>
       </c>
-      <c r="E144" s="116" t="s">
+      <c r="E144" s="123" t="s">
         <v>383</v>
       </c>
       <c r="F144" s="37" t="s">
@@ -22287,8 +22425,8 @@
       <c r="C145" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D145" s="118"/>
-      <c r="E145" s="118"/>
+      <c r="D145" s="125"/>
+      <c r="E145" s="125"/>
       <c r="F145" s="37" t="s">
         <v>386</v>
       </c>
@@ -22641,10 +22779,10 @@
       <c r="C157" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D157" s="116" t="s">
+      <c r="D157" s="123" t="s">
         <v>423</v>
       </c>
-      <c r="E157" s="116" t="s">
+      <c r="E157" s="123" t="s">
         <v>424</v>
       </c>
       <c r="F157" s="31" t="s">
@@ -22670,8 +22808,8 @@
       <c r="C158" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="117"/>
-      <c r="E158" s="117"/>
+      <c r="D158" s="124"/>
+      <c r="E158" s="124"/>
       <c r="F158" s="31" t="s">
         <v>310</v>
       </c>
@@ -22695,8 +22833,8 @@
       <c r="C159" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D159" s="117"/>
-      <c r="E159" s="117"/>
+      <c r="D159" s="124"/>
+      <c r="E159" s="124"/>
       <c r="F159" s="31" t="s">
         <v>309</v>
       </c>
@@ -22720,8 +22858,8 @@
       <c r="C160" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="117"/>
-      <c r="E160" s="117"/>
+      <c r="D160" s="124"/>
+      <c r="E160" s="124"/>
       <c r="F160" s="31" t="s">
         <v>308</v>
       </c>
@@ -22745,8 +22883,8 @@
       <c r="C161" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D161" s="117"/>
-      <c r="E161" s="117"/>
+      <c r="D161" s="124"/>
+      <c r="E161" s="124"/>
       <c r="F161" s="31" t="s">
         <v>311</v>
       </c>
@@ -22770,8 +22908,8 @@
       <c r="C162" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="117"/>
-      <c r="E162" s="117"/>
+      <c r="D162" s="124"/>
+      <c r="E162" s="124"/>
       <c r="F162" s="31" t="s">
         <v>312</v>
       </c>
@@ -22795,8 +22933,8 @@
       <c r="C163" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D163" s="117"/>
-      <c r="E163" s="117"/>
+      <c r="D163" s="124"/>
+      <c r="E163" s="124"/>
       <c r="F163" s="31" t="s">
         <v>319</v>
       </c>
@@ -22820,8 +22958,8 @@
       <c r="C164" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D164" s="117"/>
-      <c r="E164" s="117"/>
+      <c r="D164" s="124"/>
+      <c r="E164" s="124"/>
       <c r="F164" s="31" t="s">
         <v>314</v>
       </c>
@@ -22845,8 +22983,8 @@
       <c r="C165" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D165" s="117"/>
-      <c r="E165" s="117"/>
+      <c r="D165" s="124"/>
+      <c r="E165" s="124"/>
       <c r="F165" s="31" t="s">
         <v>315</v>
       </c>
@@ -22870,8 +23008,8 @@
       <c r="C166" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="117"/>
-      <c r="E166" s="117"/>
+      <c r="D166" s="124"/>
+      <c r="E166" s="124"/>
       <c r="F166" s="31" t="s">
         <v>316</v>
       </c>
@@ -22895,8 +23033,8 @@
       <c r="C167" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="117"/>
-      <c r="E167" s="117"/>
+      <c r="D167" s="124"/>
+      <c r="E167" s="124"/>
       <c r="F167" s="31" t="s">
         <v>317</v>
       </c>
@@ -22920,8 +23058,8 @@
       <c r="C168" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D168" s="118"/>
-      <c r="E168" s="118"/>
+      <c r="D168" s="125"/>
+      <c r="E168" s="125"/>
       <c r="F168" s="31" t="s">
         <v>318</v>
       </c>
@@ -22980,13 +23118,13 @@
       <c r="C170" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D170" s="116" t="s">
+      <c r="D170" s="123" t="s">
         <v>426</v>
       </c>
       <c r="E170" s="31" t="s">
         <v>323</v>
       </c>
-      <c r="F170" s="116" t="s">
+      <c r="F170" s="123" t="s">
         <v>425</v>
       </c>
       <c r="G170" s="93">
@@ -23009,11 +23147,11 @@
       <c r="C171" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D171" s="117"/>
+      <c r="D171" s="124"/>
       <c r="E171" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="F171" s="117"/>
+      <c r="F171" s="124"/>
       <c r="G171" s="93">
         <v>44440</v>
       </c>
@@ -23034,11 +23172,11 @@
       <c r="C172" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D172" s="117"/>
+      <c r="D172" s="124"/>
       <c r="E172" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F172" s="117"/>
+      <c r="F172" s="124"/>
       <c r="G172" s="93">
         <v>44440</v>
       </c>
@@ -23059,11 +23197,11 @@
       <c r="C173" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D173" s="117"/>
+      <c r="D173" s="124"/>
       <c r="E173" s="31" t="s">
         <v>325</v>
       </c>
-      <c r="F173" s="117"/>
+      <c r="F173" s="124"/>
       <c r="G173" s="93">
         <v>44440</v>
       </c>
@@ -23084,11 +23222,11 @@
       <c r="C174" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D174" s="117"/>
+      <c r="D174" s="124"/>
       <c r="E174" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="F174" s="117"/>
+      <c r="F174" s="124"/>
       <c r="G174" s="93">
         <v>44440</v>
       </c>
@@ -23109,11 +23247,11 @@
       <c r="C175" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="117"/>
+      <c r="D175" s="124"/>
       <c r="E175" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="F175" s="117"/>
+      <c r="F175" s="124"/>
       <c r="G175" s="93">
         <v>44445</v>
       </c>
@@ -23136,11 +23274,11 @@
       <c r="C176" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D176" s="117"/>
+      <c r="D176" s="124"/>
       <c r="E176" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="F176" s="117"/>
+      <c r="F176" s="124"/>
       <c r="G176" s="93">
         <v>44440</v>
       </c>
@@ -23161,11 +23299,11 @@
       <c r="C177" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D177" s="117"/>
+      <c r="D177" s="124"/>
       <c r="E177" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="F177" s="117"/>
+      <c r="F177" s="124"/>
       <c r="G177" s="93">
         <v>44440</v>
       </c>
@@ -23186,11 +23324,11 @@
       <c r="C178" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D178" s="117"/>
+      <c r="D178" s="124"/>
       <c r="E178" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="F178" s="117"/>
+      <c r="F178" s="124"/>
       <c r="G178" s="93">
         <v>44440</v>
       </c>
@@ -23211,11 +23349,11 @@
       <c r="C179" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="117"/>
+      <c r="D179" s="124"/>
       <c r="E179" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="F179" s="117"/>
+      <c r="F179" s="124"/>
       <c r="G179" s="93">
         <v>44440</v>
       </c>
@@ -23236,11 +23374,11 @@
       <c r="C180" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D180" s="117"/>
+      <c r="D180" s="124"/>
       <c r="E180" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="F180" s="117"/>
+      <c r="F180" s="124"/>
       <c r="G180" s="93">
         <v>44440</v>
       </c>
@@ -23261,11 +23399,11 @@
       <c r="C181" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D181" s="118"/>
+      <c r="D181" s="125"/>
       <c r="E181" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="F181" s="118"/>
+      <c r="F181" s="125"/>
       <c r="G181" s="93">
         <v>44440</v>
       </c>
@@ -23288,7 +23426,7 @@
       <c r="C182" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D182" s="116" t="s">
+      <c r="D182" s="123" t="s">
         <v>427</v>
       </c>
       <c r="E182" s="31" t="s">
@@ -23317,7 +23455,7 @@
       <c r="C183" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="117"/>
+      <c r="D183" s="124"/>
       <c r="E183" s="31" t="s">
         <v>332</v>
       </c>
@@ -23344,7 +23482,7 @@
       <c r="C184" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D184" s="117"/>
+      <c r="D184" s="124"/>
       <c r="E184" s="31" t="s">
         <v>333</v>
       </c>
@@ -23371,7 +23509,7 @@
       <c r="C185" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="117"/>
+      <c r="D185" s="124"/>
       <c r="E185" s="31" t="s">
         <v>334</v>
       </c>
@@ -23398,7 +23536,7 @@
       <c r="C186" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D186" s="117"/>
+      <c r="D186" s="124"/>
       <c r="E186" s="31" t="s">
         <v>335</v>
       </c>
@@ -23425,7 +23563,7 @@
       <c r="C187" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D187" s="117"/>
+      <c r="D187" s="124"/>
       <c r="E187" s="31" t="s">
         <v>340</v>
       </c>
@@ -23454,7 +23592,7 @@
       <c r="C188" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D188" s="117"/>
+      <c r="D188" s="124"/>
       <c r="E188" s="31" t="s">
         <v>336</v>
       </c>
@@ -23481,7 +23619,7 @@
       <c r="C189" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D189" s="117"/>
+      <c r="D189" s="124"/>
       <c r="E189" s="31" t="s">
         <v>337</v>
       </c>
@@ -23508,7 +23646,7 @@
       <c r="C190" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="117"/>
+      <c r="D190" s="124"/>
       <c r="E190" s="31" t="s">
         <v>338</v>
       </c>
@@ -23535,7 +23673,7 @@
       <c r="C191" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D191" s="118"/>
+      <c r="D191" s="125"/>
       <c r="E191" s="31" t="s">
         <v>339</v>
       </c>
@@ -23564,10 +23702,10 @@
       <c r="C192" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D192" s="116" t="s">
+      <c r="D192" s="123" t="s">
         <v>429</v>
       </c>
-      <c r="E192" s="116" t="s">
+      <c r="E192" s="123" t="s">
         <v>428</v>
       </c>
       <c r="F192" s="32" t="s">
@@ -23593,8 +23731,8 @@
       <c r="C193" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D193" s="117"/>
-      <c r="E193" s="117"/>
+      <c r="D193" s="124"/>
+      <c r="E193" s="124"/>
       <c r="F193" s="32" t="s">
         <v>109</v>
       </c>
@@ -23618,8 +23756,8 @@
       <c r="C194" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D194" s="117"/>
-      <c r="E194" s="117"/>
+      <c r="D194" s="124"/>
+      <c r="E194" s="124"/>
       <c r="F194" s="32" t="s">
         <v>112</v>
       </c>
@@ -23643,8 +23781,8 @@
       <c r="C195" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="117"/>
-      <c r="E195" s="117"/>
+      <c r="D195" s="124"/>
+      <c r="E195" s="124"/>
       <c r="F195" s="32" t="s">
         <v>113</v>
       </c>
@@ -23668,8 +23806,8 @@
       <c r="C196" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D196" s="117"/>
-      <c r="E196" s="117"/>
+      <c r="D196" s="124"/>
+      <c r="E196" s="124"/>
       <c r="F196" s="32" t="s">
         <v>114</v>
       </c>
@@ -23693,8 +23831,8 @@
       <c r="C197" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="117"/>
-      <c r="E197" s="117"/>
+      <c r="D197" s="124"/>
+      <c r="E197" s="124"/>
       <c r="F197" s="32" t="s">
         <v>111</v>
       </c>
@@ -23720,8 +23858,8 @@
       <c r="C198" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D198" s="117"/>
-      <c r="E198" s="117"/>
+      <c r="D198" s="124"/>
+      <c r="E198" s="124"/>
       <c r="F198" s="32" t="s">
         <v>115</v>
       </c>
@@ -23745,8 +23883,8 @@
       <c r="C199" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D199" s="117"/>
-      <c r="E199" s="117"/>
+      <c r="D199" s="124"/>
+      <c r="E199" s="124"/>
       <c r="F199" s="32" t="s">
         <v>430</v>
       </c>
@@ -23770,8 +23908,8 @@
       <c r="C200" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D200" s="117"/>
-      <c r="E200" s="117"/>
+      <c r="D200" s="124"/>
+      <c r="E200" s="124"/>
       <c r="F200" s="32" t="s">
         <v>431</v>
       </c>
@@ -23795,8 +23933,8 @@
       <c r="C201" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="117"/>
-      <c r="E201" s="117"/>
+      <c r="D201" s="124"/>
+      <c r="E201" s="124"/>
       <c r="F201" s="32" t="s">
         <v>432</v>
       </c>
@@ -23820,8 +23958,8 @@
       <c r="C202" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D202" s="117"/>
-      <c r="E202" s="117"/>
+      <c r="D202" s="124"/>
+      <c r="E202" s="124"/>
       <c r="F202" s="32" t="s">
         <v>433</v>
       </c>
@@ -23845,8 +23983,8 @@
       <c r="C203" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="118"/>
-      <c r="E203" s="118"/>
+      <c r="D203" s="125"/>
+      <c r="E203" s="125"/>
       <c r="F203" s="32" t="s">
         <v>116</v>
       </c>
@@ -23905,13 +24043,13 @@
       <c r="C205" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="116" t="s">
+      <c r="D205" s="123" t="s">
         <v>434</v>
       </c>
-      <c r="E205" s="116" t="s">
+      <c r="E205" s="123" t="s">
         <v>435</v>
       </c>
-      <c r="F205" s="134" t="s">
+      <c r="F205" s="135" t="s">
         <v>438</v>
       </c>
       <c r="G205" s="93">
@@ -23934,9 +24072,9 @@
       <c r="C206" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="117"/>
-      <c r="E206" s="117"/>
-      <c r="F206" s="135"/>
+      <c r="D206" s="124"/>
+      <c r="E206" s="124"/>
+      <c r="F206" s="136"/>
       <c r="G206" s="93">
         <v>44440</v>
       </c>
@@ -23957,9 +24095,9 @@
       <c r="C207" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="117"/>
-      <c r="E207" s="117"/>
-      <c r="F207" s="135"/>
+      <c r="D207" s="124"/>
+      <c r="E207" s="124"/>
+      <c r="F207" s="136"/>
       <c r="G207" s="93">
         <v>44440</v>
       </c>
@@ -23980,9 +24118,9 @@
       <c r="C208" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D208" s="117"/>
-      <c r="E208" s="117"/>
-      <c r="F208" s="135"/>
+      <c r="D208" s="124"/>
+      <c r="E208" s="124"/>
+      <c r="F208" s="136"/>
       <c r="G208" s="93">
         <v>44440</v>
       </c>
@@ -24003,9 +24141,9 @@
       <c r="C209" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D209" s="117"/>
-      <c r="E209" s="117"/>
-      <c r="F209" s="135"/>
+      <c r="D209" s="124"/>
+      <c r="E209" s="124"/>
+      <c r="F209" s="136"/>
       <c r="G209" s="93">
         <v>44440</v>
       </c>
@@ -24026,9 +24164,9 @@
       <c r="C210" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="117"/>
-      <c r="E210" s="117"/>
-      <c r="F210" s="136"/>
+      <c r="D210" s="124"/>
+      <c r="E210" s="124"/>
+      <c r="F210" s="137"/>
       <c r="G210" s="93">
         <v>44440</v>
       </c>
@@ -24049,8 +24187,8 @@
       <c r="C211" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D211" s="117"/>
-      <c r="E211" s="117"/>
+      <c r="D211" s="124"/>
+      <c r="E211" s="124"/>
       <c r="F211" s="32" t="s">
         <v>439</v>
       </c>
@@ -24074,8 +24212,8 @@
       <c r="C212" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D212" s="117"/>
-      <c r="E212" s="117"/>
+      <c r="D212" s="124"/>
+      <c r="E212" s="124"/>
       <c r="F212" s="32" t="s">
         <v>437</v>
       </c>
@@ -24099,8 +24237,8 @@
       <c r="C213" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D213" s="117"/>
-      <c r="E213" s="117"/>
+      <c r="D213" s="124"/>
+      <c r="E213" s="124"/>
       <c r="F213" s="32" t="s">
         <v>441</v>
       </c>
@@ -24124,9 +24262,9 @@
       <c r="C214" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="117"/>
-      <c r="E214" s="117"/>
-      <c r="F214" s="134" t="s">
+      <c r="D214" s="124"/>
+      <c r="E214" s="124"/>
+      <c r="F214" s="135" t="s">
         <v>437</v>
       </c>
       <c r="G214" s="93">
@@ -24149,9 +24287,9 @@
       <c r="C215" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D215" s="117"/>
-      <c r="E215" s="117"/>
-      <c r="F215" s="136"/>
+      <c r="D215" s="124"/>
+      <c r="E215" s="124"/>
+      <c r="F215" s="137"/>
       <c r="G215" s="93">
         <v>44440</v>
       </c>
@@ -24172,8 +24310,8 @@
       <c r="C216" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D216" s="118"/>
-      <c r="E216" s="118"/>
+      <c r="D216" s="125"/>
+      <c r="E216" s="125"/>
       <c r="F216" s="32" t="s">
         <v>440</v>
       </c>
@@ -24259,10 +24397,10 @@
       <c r="C219" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D219" s="116" t="s">
+      <c r="D219" s="123" t="s">
         <v>448</v>
       </c>
-      <c r="E219" s="116" t="s">
+      <c r="E219" s="123" t="s">
         <v>449</v>
       </c>
       <c r="F219" s="32" t="s">
@@ -24288,8 +24426,8 @@
       <c r="C220" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D220" s="117"/>
-      <c r="E220" s="117"/>
+      <c r="D220" s="124"/>
+      <c r="E220" s="124"/>
       <c r="F220" s="32" t="s">
         <v>476</v>
       </c>
@@ -24313,8 +24451,8 @@
       <c r="C221" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D221" s="117"/>
-      <c r="E221" s="117"/>
+      <c r="D221" s="124"/>
+      <c r="E221" s="124"/>
       <c r="F221" s="32" t="s">
         <v>477</v>
       </c>
@@ -24338,8 +24476,8 @@
       <c r="C222" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D222" s="117"/>
-      <c r="E222" s="117"/>
+      <c r="D222" s="124"/>
+      <c r="E222" s="124"/>
       <c r="F222" s="32" t="s">
         <v>478</v>
       </c>
@@ -24363,8 +24501,8 @@
       <c r="C223" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D223" s="117"/>
-      <c r="E223" s="117"/>
+      <c r="D223" s="124"/>
+      <c r="E223" s="124"/>
       <c r="F223" s="32" t="s">
         <v>479</v>
       </c>
@@ -24388,8 +24526,8 @@
       <c r="C224" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D224" s="117"/>
-      <c r="E224" s="117"/>
+      <c r="D224" s="124"/>
+      <c r="E224" s="124"/>
       <c r="F224" s="32" t="s">
         <v>480</v>
       </c>
@@ -24415,8 +24553,8 @@
       <c r="C225" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="117"/>
-      <c r="E225" s="117"/>
+      <c r="D225" s="124"/>
+      <c r="E225" s="124"/>
       <c r="F225" s="32" t="s">
         <v>481</v>
       </c>
@@ -24440,8 +24578,8 @@
       <c r="C226" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D226" s="117"/>
-      <c r="E226" s="117"/>
+      <c r="D226" s="124"/>
+      <c r="E226" s="124"/>
       <c r="F226" s="32" t="s">
         <v>482</v>
       </c>
@@ -24465,8 +24603,8 @@
       <c r="C227" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D227" s="117"/>
-      <c r="E227" s="117"/>
+      <c r="D227" s="124"/>
+      <c r="E227" s="124"/>
       <c r="F227" s="32" t="s">
         <v>483</v>
       </c>
@@ -24490,8 +24628,8 @@
       <c r="C228" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="117"/>
-      <c r="E228" s="117"/>
+      <c r="D228" s="124"/>
+      <c r="E228" s="124"/>
       <c r="F228" s="32" t="s">
         <v>484</v>
       </c>
@@ -24515,8 +24653,8 @@
       <c r="C229" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D229" s="117"/>
-      <c r="E229" s="117"/>
+      <c r="D229" s="124"/>
+      <c r="E229" s="124"/>
       <c r="F229" s="32" t="s">
         <v>485</v>
       </c>
@@ -24540,8 +24678,8 @@
       <c r="C230" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D230" s="117"/>
-      <c r="E230" s="117"/>
+      <c r="D230" s="124"/>
+      <c r="E230" s="124"/>
       <c r="F230" s="32" t="s">
         <v>474</v>
       </c>
@@ -24565,8 +24703,8 @@
       <c r="C231" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D231" s="117"/>
-      <c r="E231" s="117"/>
+      <c r="D231" s="124"/>
+      <c r="E231" s="124"/>
       <c r="F231" s="31" t="s">
         <v>486</v>
       </c>
@@ -24590,8 +24728,8 @@
       <c r="C232" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D232" s="118"/>
-      <c r="E232" s="118"/>
+      <c r="D232" s="125"/>
+      <c r="E232" s="125"/>
       <c r="F232" s="31" t="s">
         <v>487</v>
       </c>
@@ -26511,19 +26649,21 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F205:F210"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="D219:D232"/>
-    <mergeCell ref="E219:E232"/>
-    <mergeCell ref="E192:E203"/>
-    <mergeCell ref="D192:D203"/>
-    <mergeCell ref="D205:D216"/>
-    <mergeCell ref="E205:E216"/>
-    <mergeCell ref="D157:D168"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="D170:D181"/>
-    <mergeCell ref="F170:F181"/>
-    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F130:F141"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D114:D125"/>
+    <mergeCell ref="E114:E125"/>
+    <mergeCell ref="D130:D141"/>
+    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="D98:D108"/>
+    <mergeCell ref="E98:E108"/>
+    <mergeCell ref="D79:D94"/>
+    <mergeCell ref="D42:D53"/>
+    <mergeCell ref="E42:E53"/>
+    <mergeCell ref="E66:E77"/>
+    <mergeCell ref="E79:E94"/>
+    <mergeCell ref="D66:D77"/>
     <mergeCell ref="F66:F77"/>
     <mergeCell ref="D54:D65"/>
     <mergeCell ref="E54:E65"/>
@@ -26538,21 +26678,19 @@
     <mergeCell ref="D20:D31"/>
     <mergeCell ref="D32:D41"/>
     <mergeCell ref="F42:F53"/>
-    <mergeCell ref="D98:D108"/>
-    <mergeCell ref="E98:E108"/>
-    <mergeCell ref="D79:D94"/>
-    <mergeCell ref="D42:D53"/>
-    <mergeCell ref="E42:E53"/>
-    <mergeCell ref="E66:E77"/>
-    <mergeCell ref="E79:E94"/>
-    <mergeCell ref="D66:D77"/>
-    <mergeCell ref="F130:F141"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D114:D125"/>
-    <mergeCell ref="E114:E125"/>
-    <mergeCell ref="D130:D141"/>
-    <mergeCell ref="E130:E141"/>
+    <mergeCell ref="D157:D168"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="D170:D181"/>
+    <mergeCell ref="F170:F181"/>
+    <mergeCell ref="D182:D191"/>
+    <mergeCell ref="F205:F210"/>
+    <mergeCell ref="F214:F215"/>
+    <mergeCell ref="D219:D232"/>
+    <mergeCell ref="E219:E232"/>
+    <mergeCell ref="E192:E203"/>
+    <mergeCell ref="D192:D203"/>
+    <mergeCell ref="D205:D216"/>
+    <mergeCell ref="E205:E216"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -26565,7 +26703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF615372-07F9-4A76-9222-E3823EA7CCE0}">
   <dimension ref="B2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
@@ -26582,46 +26720,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="146" t="s">
         <v>549</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="E3" s="148" t="s">
+      <c r="E3" s="145" t="s">
         <v>554</v>
       </c>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="145" t="s">
         <v>555</v>
       </c>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148" t="s">
+      <c r="H3" s="145"/>
+      <c r="I3" s="145" t="s">
         <v>556</v>
       </c>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="140" t="s">
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="147" t="s">
         <v>564</v>
       </c>
-      <c r="J4" s="141"/>
-      <c r="K4" s="140" t="s">
+      <c r="J4" s="148"/>
+      <c r="K4" s="147" t="s">
         <v>565</v>
       </c>
-      <c r="L4" s="141"/>
+      <c r="L4" s="148"/>
     </row>
     <row r="5" spans="2:12">
       <c r="B5" s="104" t="s">
@@ -26668,28 +26806,28 @@
       <c r="D6" s="105" t="s">
         <v>562</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="149" t="s">
         <v>577</v>
       </c>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="161" t="s">
         <v>581</v>
       </c>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="152" t="s">
         <v>580</v>
       </c>
-      <c r="H6" s="153" t="s">
+      <c r="H6" s="111" t="s">
         <v>584</v>
       </c>
-      <c r="I6" s="150" t="s">
+      <c r="I6" s="155" t="s">
         <v>586</v>
       </c>
-      <c r="J6" s="161" t="s">
+      <c r="J6" s="113" t="s">
         <v>600</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="155" t="s">
         <v>586</v>
       </c>
-      <c r="L6" s="153" t="s">
+      <c r="L6" s="111" t="s">
         <v>611</v>
       </c>
     </row>
@@ -26703,18 +26841,18 @@
       <c r="D7" s="105" t="s">
         <v>563</v>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="150" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="155" t="s">
         <v>585</v>
       </c>
-      <c r="I7" s="152"/>
-      <c r="J7" s="161" t="s">
+      <c r="I7" s="157"/>
+      <c r="J7" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="K7" s="151"/>
-      <c r="L7" s="153" t="s">
+      <c r="K7" s="156"/>
+      <c r="L7" s="111" t="s">
         <v>612</v>
       </c>
     </row>
@@ -26728,18 +26866,18 @@
       <c r="D8" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="153" t="s">
+      <c r="E8" s="150"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="111" t="s">
         <v>587</v>
       </c>
-      <c r="J8" s="161" t="s">
+      <c r="J8" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="K8" s="151"/>
-      <c r="L8" s="156" t="s">
+      <c r="K8" s="156"/>
+      <c r="L8" s="112" t="s">
         <v>595</v>
       </c>
     </row>
@@ -26753,18 +26891,18 @@
       <c r="D9" s="105" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="143"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="153" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="111" t="s">
         <v>588</v>
       </c>
-      <c r="J9" s="161" t="s">
+      <c r="J9" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="153" t="s">
+      <c r="K9" s="156"/>
+      <c r="L9" s="111" t="s">
         <v>596</v>
       </c>
     </row>
@@ -26778,18 +26916,18 @@
       <c r="D10" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="E10" s="143"/>
-      <c r="F10" s="159"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="153" t="s">
+      <c r="E10" s="150"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="111" t="s">
         <v>589</v>
       </c>
-      <c r="J10" s="161" t="s">
+      <c r="J10" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="K10" s="151"/>
-      <c r="L10" s="153" t="s">
+      <c r="K10" s="156"/>
+      <c r="L10" s="111" t="s">
         <v>613</v>
       </c>
     </row>
@@ -26803,18 +26941,18 @@
       <c r="D11" s="105" t="s">
         <v>569</v>
       </c>
-      <c r="E11" s="143"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="153" t="s">
+      <c r="E11" s="150"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="111" t="s">
         <v>590</v>
       </c>
-      <c r="J11" s="161" t="s">
+      <c r="J11" s="113" t="s">
         <v>605</v>
       </c>
-      <c r="K11" s="151"/>
-      <c r="L11" s="154" t="s">
+      <c r="K11" s="156"/>
+      <c r="L11" s="158" t="s">
         <v>597</v>
       </c>
     </row>
@@ -26828,18 +26966,18 @@
       <c r="D12" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="153" t="s">
+      <c r="E12" s="150"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="111" t="s">
         <v>591</v>
       </c>
-      <c r="J12" s="161" t="s">
+      <c r="J12" s="113" t="s">
         <v>606</v>
       </c>
-      <c r="K12" s="151"/>
-      <c r="L12" s="157"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="159"/>
     </row>
     <row r="13" spans="2:12" ht="109.2" customHeight="1">
       <c r="B13" s="103">
@@ -26851,18 +26989,18 @@
       <c r="D13" s="105" t="s">
         <v>571</v>
       </c>
-      <c r="E13" s="143"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="153" t="s">
+      <c r="E13" s="150"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="111" t="s">
         <v>592</v>
       </c>
-      <c r="J13" s="161" t="s">
+      <c r="J13" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="K13" s="151"/>
-      <c r="L13" s="155"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="160"/>
     </row>
     <row r="14" spans="2:12" ht="56.4" customHeight="1">
       <c r="B14" s="103">
@@ -26874,18 +27012,18 @@
       <c r="D14" s="106" t="s">
         <v>572</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="153" t="s">
+      <c r="E14" s="150"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="111" t="s">
         <v>593</v>
       </c>
-      <c r="J14" s="161" t="s">
+      <c r="J14" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="K14" s="151"/>
-      <c r="L14" s="154" t="s">
+      <c r="K14" s="156"/>
+      <c r="L14" s="158" t="s">
         <v>598</v>
       </c>
     </row>
@@ -26899,18 +27037,18 @@
       <c r="D15" s="106" t="s">
         <v>573</v>
       </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="153" t="s">
+      <c r="E15" s="150"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="111" t="s">
         <v>594</v>
       </c>
-      <c r="J15" s="163" t="s">
+      <c r="J15" s="115" t="s">
         <v>609</v>
       </c>
-      <c r="K15" s="151"/>
-      <c r="L15" s="157"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="159"/>
     </row>
     <row r="16" spans="2:12" ht="109.2" customHeight="1">
       <c r="B16" s="103">
@@ -26922,38 +27060,38 @@
       <c r="D16" s="106" t="s">
         <v>574</v>
       </c>
-      <c r="E16" s="144"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="161" t="s">
+      <c r="E16" s="151"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="113" t="s">
         <v>599</v>
       </c>
-      <c r="J16" s="153" t="s">
+      <c r="J16" s="111" t="s">
         <v>610</v>
       </c>
-      <c r="K16" s="152"/>
-      <c r="L16" s="155"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="160"/>
     </row>
     <row r="17" spans="10:10">
-      <c r="J17" s="162"/>
+      <c r="J17" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="F6:F16"/>
+    <mergeCell ref="E6:E16"/>
+    <mergeCell ref="G6:G16"/>
+    <mergeCell ref="H7:H16"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K16"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="E6:E16"/>
-    <mergeCell ref="G6:G16"/>
-    <mergeCell ref="H7:H16"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K16"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="F6:F16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
